--- a/xauusd.xlsx
+++ b/xauusd.xlsx
@@ -397,2700 +397,2700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>May 10, 2023 00:00</t>
+          <t>Jun 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B2">
-        <v>2033.87</v>
+        <v>1977.19</v>
       </c>
       <c r="C2">
-        <v>2048.11</v>
+        <v>1983.39</v>
       </c>
       <c r="D2">
-        <v>2025</v>
+        <v>1947.94</v>
       </c>
       <c r="E2">
-        <v>2035.46</v>
+        <v>1948.23</v>
       </c>
       <c r="F2">
-        <v>159</v>
+        <v>-2896</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+0.08%</t>
+          <t>-1.49%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>May 09, 2023 00:00</t>
+          <t>Jun 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B3">
-        <v>2020.84</v>
+        <v>1962.72</v>
       </c>
       <c r="C3">
-        <v>2037.57</v>
+        <v>1983.09</v>
       </c>
       <c r="D3">
-        <v>2019.46</v>
+        <v>1953.31</v>
       </c>
       <c r="E3">
-        <v>2034.38</v>
+        <v>1977.37</v>
       </c>
       <c r="F3">
-        <v>1354</v>
+        <v>1465</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+0.67%</t>
+          <t>+0.74%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>May 08, 2023 00:00</t>
+          <t>May 31, 2023 00:00</t>
         </is>
       </c>
       <c r="B4">
-        <v>2016.06</v>
+        <v>1959.21</v>
       </c>
       <c r="C4">
-        <v>2029.36</v>
+        <v>1974.7</v>
       </c>
       <c r="D4">
-        <v>2014.21</v>
+        <v>1953.64</v>
       </c>
       <c r="E4">
-        <v>2021.33</v>
+        <v>1962.55</v>
       </c>
       <c r="F4">
-        <v>527</v>
+        <v>334</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+0.26%</t>
+          <t>+0.17%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>May 05, 2023 00:00</t>
+          <t>May 30, 2023 00:00</t>
         </is>
       </c>
       <c r="B5">
-        <v>2049.73</v>
+        <v>1943.42</v>
       </c>
       <c r="C5">
-        <v>2052.93</v>
+        <v>1963.47</v>
       </c>
       <c r="D5">
-        <v>1999.46</v>
+        <v>1931.99</v>
       </c>
       <c r="E5">
-        <v>2015.92</v>
+        <v>1959.23</v>
       </c>
       <c r="F5">
-        <v>-3381</v>
+        <v>1581</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.68%</t>
+          <t>+0.81%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>May 04, 2023 00:00</t>
+          <t>May 29, 2023 00:00</t>
         </is>
       </c>
       <c r="B6">
-        <v>2044.73</v>
+        <v>1941.94</v>
       </c>
       <c r="C6">
-        <v>2078.37</v>
+        <v>1949.7</v>
       </c>
       <c r="D6">
-        <v>2030.33</v>
+        <v>1940.18</v>
       </c>
       <c r="E6">
-        <v>2050.09</v>
+        <v>1942.96</v>
       </c>
       <c r="F6">
-        <v>536</v>
+        <v>102</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+0.26%</t>
+          <t>+0.05%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>May 03, 2023 00:00</t>
+          <t>May 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B7">
-        <v>2016.45</v>
+        <v>1940.33</v>
       </c>
       <c r="C7">
-        <v>2040.35</v>
+        <v>1957.21</v>
       </c>
       <c r="D7">
-        <v>2007.18</v>
+        <v>1936.7</v>
       </c>
       <c r="E7">
-        <v>2038.52</v>
+        <v>1946.48</v>
       </c>
       <c r="F7">
-        <v>2207</v>
+        <v>615</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>+1.08%</t>
+          <t>+0.32%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>May 02, 2023 00:00</t>
+          <t>May 25, 2023 00:00</t>
         </is>
       </c>
       <c r="B8">
-        <v>1981.63</v>
+        <v>1957.39</v>
       </c>
       <c r="C8">
-        <v>2019.35</v>
+        <v>1964.76</v>
       </c>
       <c r="D8">
-        <v>1978.41</v>
+        <v>1938.86</v>
       </c>
       <c r="E8">
-        <v>2016.51</v>
+        <v>1940.69</v>
       </c>
       <c r="F8">
-        <v>3488</v>
+        <v>-1670</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+1.73%</t>
+          <t>-0.86%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>May 01, 2023 00:00</t>
+          <t>May 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B9">
-        <v>1991.03</v>
+        <v>1975.1</v>
       </c>
       <c r="C9">
-        <v>2005.98</v>
+        <v>1985.28</v>
       </c>
       <c r="D9">
-        <v>1977.04</v>
+        <v>1956.71</v>
       </c>
       <c r="E9">
-        <v>1982.41</v>
+        <v>1957.16</v>
       </c>
       <c r="F9">
-        <v>-862</v>
+        <v>-1794</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>-0.92%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apr 28, 2023 00:00</t>
+          <t>May 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B10">
-        <v>1987.99</v>
+        <v>1971.82</v>
       </c>
       <c r="C10">
-        <v>1995</v>
+        <v>1977.67</v>
       </c>
       <c r="D10">
-        <v>1976.27</v>
+        <v>1954.22</v>
       </c>
       <c r="E10">
-        <v>1989.65</v>
+        <v>1974.91</v>
       </c>
       <c r="F10">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+0.08%</t>
+          <t>+0.16%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apr 27, 2023 00:00</t>
+          <t>May 22, 2023 00:00</t>
         </is>
       </c>
       <c r="B11">
-        <v>1989.95</v>
+        <v>1977.53</v>
       </c>
       <c r="C11">
-        <v>2003.19</v>
+        <v>1982.61</v>
       </c>
       <c r="D11">
-        <v>1974.11</v>
+        <v>1968.84</v>
       </c>
       <c r="E11">
-        <v>1987.78</v>
+        <v>1971.66</v>
       </c>
       <c r="F11">
-        <v>-217</v>
+        <v>-587</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-0.30%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apr 26, 2023 00:00</t>
+          <t>May 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B12">
-        <v>1996.66</v>
+        <v>1957.88</v>
       </c>
       <c r="C12">
-        <v>2009.26</v>
+        <v>1984.19</v>
       </c>
       <c r="D12">
-        <v>1983.3</v>
+        <v>1953.96</v>
       </c>
       <c r="E12">
-        <v>1989.25</v>
+        <v>1977.56</v>
       </c>
       <c r="F12">
-        <v>-741</v>
+        <v>1968</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>+1.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Apr 25, 2023 00:00</t>
+          <t>May 18, 2023 00:00</t>
         </is>
       </c>
       <c r="B13">
-        <v>1988.83</v>
+        <v>1981.05</v>
       </c>
       <c r="C13">
-        <v>2003.8</v>
+        <v>1985.95</v>
       </c>
       <c r="D13">
-        <v>1976.05</v>
+        <v>1951.91</v>
       </c>
       <c r="E13">
-        <v>1997.01</v>
+        <v>1957.39</v>
       </c>
       <c r="F13">
-        <v>818</v>
+        <v>-2366</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>+0.41%</t>
+          <t>-1.21%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apr 24, 2023 00:00</t>
+          <t>May 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B14">
-        <v>1981.28</v>
+        <v>1989.06</v>
       </c>
       <c r="C14">
-        <v>1990.81</v>
+        <v>1992.96</v>
       </c>
       <c r="D14">
-        <v>1974.09</v>
+        <v>1974.98</v>
       </c>
       <c r="E14">
-        <v>1988.96</v>
+        <v>1981.51</v>
       </c>
       <c r="F14">
-        <v>768</v>
+        <v>-755</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+0.39%</t>
+          <t>-0.38%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Apr 21, 2023 00:00</t>
+          <t>May 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B15">
-        <v>2003.94</v>
+        <v>2015.81</v>
       </c>
       <c r="C15">
-        <v>2005.47</v>
+        <v>2018.31</v>
       </c>
       <c r="D15">
-        <v>1971.58</v>
+        <v>1985.42</v>
       </c>
       <c r="E15">
-        <v>1982.73</v>
+        <v>1988.78</v>
       </c>
       <c r="F15">
-        <v>-2121</v>
+        <v>-2703</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>-1.36%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apr 20, 2023 00:00</t>
+          <t>May 15, 2023 00:00</t>
         </is>
       </c>
       <c r="B16">
-        <v>1994.12</v>
+        <v>2007.9</v>
       </c>
       <c r="C16">
-        <v>2012.32</v>
+        <v>2022.13</v>
       </c>
       <c r="D16">
-        <v>1990.43</v>
+        <v>2007.18</v>
       </c>
       <c r="E16">
-        <v>2004.66</v>
+        <v>2016.34</v>
       </c>
       <c r="F16">
-        <v>1054</v>
+        <v>844</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+0.53%</t>
+          <t>+0.42%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apr 19, 2023 00:00</t>
+          <t>May 12, 2023 00:00</t>
         </is>
       </c>
       <c r="B17">
-        <v>2005.12</v>
+        <v>2014.84</v>
       </c>
       <c r="C17">
-        <v>2008.1</v>
+        <v>2022.56</v>
       </c>
       <c r="D17">
-        <v>1969.19</v>
+        <v>2000.89</v>
       </c>
       <c r="E17">
-        <v>1994.6</v>
+        <v>2010.78</v>
       </c>
       <c r="F17">
-        <v>-1052</v>
+        <v>-406</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.53%</t>
+          <t>-0.20%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apr 18, 2023 00:00</t>
+          <t>May 11, 2023 00:00</t>
         </is>
       </c>
       <c r="B18">
-        <v>1994.83</v>
+        <v>2030</v>
       </c>
       <c r="C18">
-        <v>2011.8</v>
+        <v>2041.19</v>
       </c>
       <c r="D18">
-        <v>1991.18</v>
+        <v>2011.1</v>
       </c>
       <c r="E18">
-        <v>2005.23</v>
+        <v>2014.92</v>
       </c>
       <c r="F18">
-        <v>1040</v>
+        <v>-1508</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>+0.52%</t>
+          <t>-0.75%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Apr 17, 2023 00:00</t>
+          <t>May 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B19">
-        <v>1999.35</v>
+        <v>2033.87</v>
       </c>
       <c r="C19">
-        <v>2015</v>
+        <v>2048.13</v>
       </c>
       <c r="D19">
-        <v>1981.14</v>
+        <v>2021.47</v>
       </c>
       <c r="E19">
-        <v>1994.99</v>
+        <v>2030.17</v>
       </c>
       <c r="F19">
-        <v>-436</v>
+        <v>-370</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>-0.18%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Apr 14, 2023 00:00</t>
+          <t>May 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B20">
-        <v>2040.33</v>
+        <v>2020.84</v>
       </c>
       <c r="C20">
-        <v>2047.34</v>
+        <v>2037.57</v>
       </c>
       <c r="D20">
-        <v>1992.34</v>
+        <v>2019.46</v>
       </c>
       <c r="E20">
-        <v>2004.53</v>
+        <v>2034.38</v>
       </c>
       <c r="F20">
-        <v>-3580</v>
+        <v>1354</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>+0.67%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Apr 13, 2023 00:00</t>
+          <t>May 08, 2023 00:00</t>
         </is>
       </c>
       <c r="B21">
-        <v>2014.36</v>
+        <v>2016.06</v>
       </c>
       <c r="C21">
-        <v>2048.71</v>
+        <v>2029.36</v>
       </c>
       <c r="D21">
-        <v>2013.77</v>
+        <v>2014.21</v>
       </c>
       <c r="E21">
-        <v>2039.94</v>
+        <v>2021.33</v>
       </c>
       <c r="F21">
-        <v>2558</v>
+        <v>527</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+1.25%</t>
+          <t>+0.26%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Apr 12, 2023 00:00</t>
+          <t>May 05, 2023 00:00</t>
         </is>
       </c>
       <c r="B22">
-        <v>2003.45</v>
+        <v>2049.73</v>
       </c>
       <c r="C22">
-        <v>2028.22</v>
+        <v>2052.93</v>
       </c>
       <c r="D22">
-        <v>2001.36</v>
+        <v>1999.46</v>
       </c>
       <c r="E22">
-        <v>2014.77</v>
+        <v>2015.92</v>
       </c>
       <c r="F22">
-        <v>1132</v>
+        <v>-3381</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+0.56%</t>
+          <t>-1.68%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Apr 11, 2023 00:00</t>
+          <t>May 04, 2023 00:00</t>
         </is>
       </c>
       <c r="B23">
-        <v>1990.92</v>
+        <v>2044.73</v>
       </c>
       <c r="C23">
-        <v>2007.43</v>
+        <v>2078.37</v>
       </c>
       <c r="D23">
-        <v>1988.72</v>
+        <v>2030.33</v>
       </c>
       <c r="E23">
-        <v>2003.53</v>
+        <v>2050.09</v>
       </c>
       <c r="F23">
-        <v>1261</v>
+        <v>536</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+0.63%</t>
+          <t>+0.26%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apr 10, 2023 00:00</t>
+          <t>May 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B24">
-        <v>1993.77</v>
+        <v>2016.45</v>
       </c>
       <c r="C24">
-        <v>2006.39</v>
+        <v>2040.35</v>
       </c>
       <c r="D24">
-        <v>1981.62</v>
+        <v>2007.18</v>
       </c>
       <c r="E24">
-        <v>1991.14</v>
+        <v>2038.52</v>
       </c>
       <c r="F24">
-        <v>-263</v>
+        <v>2207</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>+1.08%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Apr 06, 2023 00:00</t>
+          <t>May 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B25">
-        <v>2020.83</v>
+        <v>1981.63</v>
       </c>
       <c r="C25">
-        <v>2021.31</v>
+        <v>2019.35</v>
       </c>
       <c r="D25">
-        <v>2000.79</v>
+        <v>1978.41</v>
       </c>
       <c r="E25">
-        <v>2007.02</v>
+        <v>2016.51</v>
       </c>
       <c r="F25">
-        <v>-1381</v>
+        <v>3488</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>+1.73%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Apr 05, 2023 00:00</t>
+          <t>May 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B26">
-        <v>2019.95</v>
+        <v>1991.03</v>
       </c>
       <c r="C26">
-        <v>2032.04</v>
+        <v>2005.98</v>
       </c>
       <c r="D26">
-        <v>2009.9</v>
+        <v>1977.04</v>
       </c>
       <c r="E26">
-        <v>2020.7</v>
+        <v>1982.41</v>
       </c>
       <c r="F26">
-        <v>75</v>
+        <v>-862</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>+0.04%</t>
+          <t>-0.43%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Apr 04, 2023 00:00</t>
+          <t>Apr 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B27">
-        <v>1984.2</v>
+        <v>1987.99</v>
       </c>
       <c r="C27">
-        <v>2024.93</v>
+        <v>1995</v>
       </c>
       <c r="D27">
-        <v>1976.86</v>
+        <v>1976.27</v>
       </c>
       <c r="E27">
-        <v>2020.48</v>
+        <v>1989.65</v>
       </c>
       <c r="F27">
-        <v>3628</v>
+        <v>166</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+1.80%</t>
+          <t>+0.08%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apr 03, 2023 00:00</t>
+          <t>Apr 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B28">
-        <v>1970.36</v>
+        <v>1989.95</v>
       </c>
       <c r="C28">
-        <v>1990.46</v>
+        <v>2003.19</v>
       </c>
       <c r="D28">
-        <v>1949.7</v>
+        <v>1974.11</v>
       </c>
       <c r="E28">
-        <v>1984.37</v>
+        <v>1987.78</v>
       </c>
       <c r="F28">
-        <v>1401</v>
+        <v>-217</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+0.71%</t>
+          <t>-0.11%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mar 31, 2023 00:00</t>
+          <t>Apr 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B29">
-        <v>1980.41</v>
+        <v>1996.66</v>
       </c>
       <c r="C29">
-        <v>1987.55</v>
+        <v>2009.26</v>
       </c>
       <c r="D29">
-        <v>1966.85</v>
+        <v>1983.3</v>
       </c>
       <c r="E29">
-        <v>1969.47</v>
+        <v>1989.25</v>
       </c>
       <c r="F29">
-        <v>-1094</v>
+        <v>-741</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.56%</t>
+          <t>-0.37%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mar 30, 2023 00:00</t>
+          <t>Apr 25, 2023 00:00</t>
         </is>
       </c>
       <c r="B30">
-        <v>1963.71</v>
+        <v>1988.83</v>
       </c>
       <c r="C30">
-        <v>1984.29</v>
+        <v>2003.8</v>
       </c>
       <c r="D30">
-        <v>1955.32</v>
+        <v>1976.05</v>
       </c>
       <c r="E30">
-        <v>1980.15</v>
+        <v>1997.01</v>
       </c>
       <c r="F30">
-        <v>1644</v>
+        <v>818</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>+0.83%</t>
+          <t>+0.41%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mar 29, 2023 00:00</t>
+          <t>Apr 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B31">
-        <v>1973.26</v>
+        <v>1981.28</v>
       </c>
       <c r="C31">
-        <v>1974.34</v>
+        <v>1990.81</v>
       </c>
       <c r="D31">
-        <v>1958.64</v>
+        <v>1974.09</v>
       </c>
       <c r="E31">
-        <v>1964.32</v>
+        <v>1988.96</v>
       </c>
       <c r="F31">
-        <v>-894</v>
+        <v>768</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.46%</t>
+          <t>+0.39%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mar 28, 2023 00:00</t>
+          <t>Apr 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B32">
-        <v>1956.26</v>
+        <v>2003.94</v>
       </c>
       <c r="C32">
-        <v>1975.25</v>
+        <v>2005.47</v>
       </c>
       <c r="D32">
-        <v>1949.1</v>
+        <v>1971.58</v>
       </c>
       <c r="E32">
-        <v>1973.51</v>
+        <v>1982.73</v>
       </c>
       <c r="F32">
-        <v>1725</v>
+        <v>-2121</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>+0.87%</t>
+          <t>-1.07%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mar 27, 2023 00:00</t>
+          <t>Apr 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B33">
-        <v>1978.89</v>
+        <v>1994.12</v>
       </c>
       <c r="C33">
-        <v>1979.53</v>
+        <v>2012.33</v>
       </c>
       <c r="D33">
-        <v>1943.94</v>
+        <v>1990.43</v>
       </c>
       <c r="E33">
-        <v>1956.34</v>
+        <v>2004.66</v>
       </c>
       <c r="F33">
-        <v>-2255</v>
+        <v>1054</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>+0.53%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mar 24, 2023 00:00</t>
+          <t>Apr 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B34">
-        <v>1993.13</v>
+        <v>2005.12</v>
       </c>
       <c r="C34">
-        <v>2002.89</v>
+        <v>2008.1</v>
       </c>
       <c r="D34">
-        <v>1975.14</v>
+        <v>1969.19</v>
       </c>
       <c r="E34">
-        <v>1977.66</v>
+        <v>1994.6</v>
       </c>
       <c r="F34">
-        <v>-1547</v>
+        <v>-1052</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-0.53%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mar 23, 2023 00:00</t>
+          <t>Apr 18, 2023 00:00</t>
         </is>
       </c>
       <c r="B35">
-        <v>1970.21</v>
+        <v>1994.83</v>
       </c>
       <c r="C35">
-        <v>2003.28</v>
+        <v>2011.8</v>
       </c>
       <c r="D35">
-        <v>1964.52</v>
+        <v>1991.18</v>
       </c>
       <c r="E35">
-        <v>1993.71</v>
+        <v>2005.23</v>
       </c>
       <c r="F35">
-        <v>2350</v>
+        <v>1040</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>+1.18%</t>
+          <t>+0.52%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mar 22, 2023 00:00</t>
+          <t>Apr 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B36">
-        <v>1939.46</v>
+        <v>1999.35</v>
       </c>
       <c r="C36">
-        <v>1978.74</v>
+        <v>2015</v>
       </c>
       <c r="D36">
-        <v>1934.23</v>
+        <v>1981.14</v>
       </c>
       <c r="E36">
-        <v>1969.64</v>
+        <v>1994.99</v>
       </c>
       <c r="F36">
-        <v>3018</v>
+        <v>-436</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>+1.53%</t>
+          <t>-0.22%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mar 21, 2023 00:00</t>
+          <t>Apr 14, 2023 00:00</t>
         </is>
       </c>
       <c r="B37">
-        <v>1978.77</v>
+        <v>2040.33</v>
       </c>
       <c r="C37">
-        <v>1985.15</v>
+        <v>2047.34</v>
       </c>
       <c r="D37">
-        <v>1935.36</v>
+        <v>1992.34</v>
       </c>
       <c r="E37">
-        <v>1940.46</v>
+        <v>2004.53</v>
       </c>
       <c r="F37">
-        <v>-3831</v>
+        <v>-3580</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>-1.79%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mar 20, 2023 00:00</t>
+          <t>Apr 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B38">
-        <v>1984.3</v>
+        <v>2014.36</v>
       </c>
       <c r="C38">
-        <v>2009.74</v>
+        <v>2048.71</v>
       </c>
       <c r="D38">
-        <v>1965.78</v>
+        <v>2013.77</v>
       </c>
       <c r="E38">
-        <v>1978.63</v>
+        <v>2039.94</v>
       </c>
       <c r="F38">
-        <v>-567</v>
+        <v>2558</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>+1.25%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mar 17, 2023 00:00</t>
+          <t>Apr 12, 2023 00:00</t>
         </is>
       </c>
       <c r="B39">
-        <v>1920.49</v>
+        <v>2003.45</v>
       </c>
       <c r="C39">
-        <v>1987.72</v>
+        <v>2028.22</v>
       </c>
       <c r="D39">
-        <v>1918.2</v>
+        <v>2001.36</v>
       </c>
       <c r="E39">
-        <v>1985.97</v>
+        <v>2014.77</v>
       </c>
       <c r="F39">
-        <v>6548</v>
+        <v>1132</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>+3.30%</t>
+          <t>+0.56%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mar 16, 2023 00:00</t>
+          <t>Apr 11, 2023 00:00</t>
         </is>
       </c>
       <c r="B40">
-        <v>1918.23</v>
+        <v>1990.92</v>
       </c>
       <c r="C40">
-        <v>1933.43</v>
+        <v>2007.43</v>
       </c>
       <c r="D40">
-        <v>1907.51</v>
+        <v>1988.72</v>
       </c>
       <c r="E40">
-        <v>1919.3</v>
+        <v>2003.53</v>
       </c>
       <c r="F40">
-        <v>107</v>
+        <v>1261</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>+0.06%</t>
+          <t>+0.63%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mar 15, 2023 00:00</t>
+          <t>Apr 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B41">
-        <v>1903.48</v>
+        <v>1993.77</v>
       </c>
       <c r="C41">
-        <v>1937.31</v>
+        <v>2006.39</v>
       </c>
       <c r="D41">
-        <v>1885.66</v>
+        <v>1981.62</v>
       </c>
       <c r="E41">
-        <v>1918.09</v>
+        <v>1991.14</v>
       </c>
       <c r="F41">
-        <v>1461</v>
+        <v>-263</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>+0.76%</t>
+          <t>-0.13%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mar 14, 2023 00:00</t>
+          <t>Apr 06, 2023 00:00</t>
         </is>
       </c>
       <c r="B42">
-        <v>1913.45</v>
+        <v>2020.83</v>
       </c>
       <c r="C42">
-        <v>1914.1</v>
+        <v>2021.31</v>
       </c>
       <c r="D42">
-        <v>1895.37</v>
+        <v>2000.79</v>
       </c>
       <c r="E42">
-        <v>1903.84</v>
+        <v>2007.02</v>
       </c>
       <c r="F42">
-        <v>-961</v>
+        <v>-1381</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>-0.69%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mar 13, 2023 00:00</t>
+          <t>Apr 05, 2023 00:00</t>
         </is>
       </c>
       <c r="B43">
-        <v>1880.78</v>
+        <v>2019.95</v>
       </c>
       <c r="C43">
-        <v>1914.57</v>
+        <v>2032.04</v>
       </c>
       <c r="D43">
-        <v>1871.45</v>
+        <v>2009.9</v>
       </c>
       <c r="E43">
-        <v>1913.37</v>
+        <v>2020.7</v>
       </c>
       <c r="F43">
-        <v>3259</v>
+        <v>75</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>+1.70%</t>
+          <t>+0.04%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mar 10, 2023 00:00</t>
+          <t>Apr 04, 2023 00:00</t>
         </is>
       </c>
       <c r="B44">
-        <v>1831.12</v>
+        <v>1984.2</v>
       </c>
       <c r="C44">
-        <v>1870.09</v>
+        <v>2024.93</v>
       </c>
       <c r="D44">
-        <v>1827.7</v>
+        <v>1976.86</v>
       </c>
       <c r="E44">
-        <v>1867.23</v>
+        <v>2020.48</v>
       </c>
       <c r="F44">
-        <v>3611</v>
+        <v>3628</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>+1.93%</t>
+          <t>+1.80%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mar 09, 2023 00:00</t>
+          <t>Apr 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B45">
-        <v>1813.77</v>
+        <v>1970.36</v>
       </c>
       <c r="C45">
-        <v>1835.64</v>
+        <v>1990.46</v>
       </c>
       <c r="D45">
-        <v>1811.87</v>
+        <v>1949.7</v>
       </c>
       <c r="E45">
-        <v>1830.74</v>
+        <v>1984.37</v>
       </c>
       <c r="F45">
-        <v>1697</v>
+        <v>1401</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>+0.93%</t>
+          <t>+0.71%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mar 08, 2023 00:00</t>
+          <t>Mar 31, 2023 00:00</t>
         </is>
       </c>
       <c r="B46">
-        <v>1813.49</v>
+        <v>1980.41</v>
       </c>
       <c r="C46">
-        <v>1824.22</v>
+        <v>1987.55</v>
       </c>
       <c r="D46">
-        <v>1809.35</v>
+        <v>1966.85</v>
       </c>
       <c r="E46">
-        <v>1813.66</v>
+        <v>1969.47</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>-1094</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>+0.01%</t>
+          <t>-0.56%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mar 07, 2023 00:00</t>
+          <t>Mar 30, 2023 00:00</t>
         </is>
       </c>
       <c r="B47">
-        <v>1846.39</v>
+        <v>1963.71</v>
       </c>
       <c r="C47">
-        <v>1851.62</v>
+        <v>1984.29</v>
       </c>
       <c r="D47">
-        <v>1812.66</v>
+        <v>1955.32</v>
       </c>
       <c r="E47">
-        <v>1812.94</v>
+        <v>1980.15</v>
       </c>
       <c r="F47">
-        <v>-3345</v>
+        <v>1644</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-1.85%</t>
+          <t>+0.83%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mar 06, 2023 00:00</t>
+          <t>Mar 29, 2023 00:00</t>
         </is>
       </c>
       <c r="B48">
-        <v>1855.24</v>
+        <v>1973.26</v>
       </c>
       <c r="C48">
-        <v>1858.28</v>
+        <v>1974.34</v>
       </c>
       <c r="D48">
-        <v>1845.05</v>
+        <v>1958.64</v>
       </c>
       <c r="E48">
-        <v>1846.56</v>
+        <v>1964.32</v>
       </c>
       <c r="F48">
-        <v>-868</v>
+        <v>-894</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mar 03, 2023 00:00</t>
+          <t>Mar 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B49">
-        <v>1835.57</v>
+        <v>1956.26</v>
       </c>
       <c r="C49">
-        <v>1856.29</v>
+        <v>1975.25</v>
       </c>
       <c r="D49">
-        <v>1835.57</v>
+        <v>1949.1</v>
       </c>
       <c r="E49">
-        <v>1854.65</v>
+        <v>1973.51</v>
       </c>
       <c r="F49">
-        <v>1908</v>
+        <v>1725</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>+1.03%</t>
+          <t>+0.87%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mar 02, 2023 00:00</t>
+          <t>Mar 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B50">
-        <v>1836.76</v>
+        <v>1978.89</v>
       </c>
       <c r="C50">
-        <v>1838.93</v>
+        <v>1979.53</v>
       </c>
       <c r="D50">
-        <v>1829.93</v>
+        <v>1943.94</v>
       </c>
       <c r="E50">
-        <v>1835.57</v>
+        <v>1956.34</v>
       </c>
       <c r="F50">
-        <v>-119</v>
+        <v>-2255</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-1.15%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mar 01, 2023 00:00</t>
+          <t>Mar 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B51">
-        <v>1826.63</v>
+        <v>1993.13</v>
       </c>
       <c r="C51">
-        <v>1844.5</v>
+        <v>2002.89</v>
       </c>
       <c r="D51">
-        <v>1823.05</v>
+        <v>1975.14</v>
       </c>
       <c r="E51">
-        <v>1836.55</v>
+        <v>1977.66</v>
       </c>
       <c r="F51">
-        <v>992</v>
+        <v>-1547</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>+0.54%</t>
+          <t>-0.78%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Feb 28, 2023 00:00</t>
+          <t>Mar 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B52">
-        <v>1816.83</v>
+        <v>1970.21</v>
       </c>
       <c r="C52">
-        <v>1831.15</v>
+        <v>2003.28</v>
       </c>
       <c r="D52">
-        <v>1804.72</v>
+        <v>1964.52</v>
       </c>
       <c r="E52">
-        <v>1826.63</v>
+        <v>1993.71</v>
       </c>
       <c r="F52">
-        <v>980</v>
+        <v>2350</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+0.54%</t>
+          <t>+1.18%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Feb 27, 2023 00:00</t>
+          <t>Mar 22, 2023 00:00</t>
         </is>
       </c>
       <c r="B53">
-        <v>1810.76</v>
+        <v>1939.46</v>
       </c>
       <c r="C53">
-        <v>1820.13</v>
+        <v>1978.74</v>
       </c>
       <c r="D53">
-        <v>1806.59</v>
+        <v>1934.23</v>
       </c>
       <c r="E53">
-        <v>1817.17</v>
+        <v>1969.64</v>
       </c>
       <c r="F53">
-        <v>641</v>
+        <v>3018</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>+0.35%</t>
+          <t>+1.53%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Feb 24, 2023 00:00</t>
+          <t>Mar 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B54">
-        <v>1822.1</v>
+        <v>1978.77</v>
       </c>
       <c r="C54">
-        <v>1827.77</v>
+        <v>1985.15</v>
       </c>
       <c r="D54">
-        <v>1808.89</v>
+        <v>1935.36</v>
       </c>
       <c r="E54">
-        <v>1811.12</v>
+        <v>1940.46</v>
       </c>
       <c r="F54">
-        <v>-1098</v>
+        <v>-3831</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>-1.97%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Feb 23, 2023 00:00</t>
+          <t>Mar 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B55">
-        <v>1825.28</v>
+        <v>1984.3</v>
       </c>
       <c r="C55">
-        <v>1833.66</v>
+        <v>2009.74</v>
       </c>
       <c r="D55">
-        <v>1817.39</v>
+        <v>1965.78</v>
       </c>
       <c r="E55">
-        <v>1822.24</v>
+        <v>1978.63</v>
       </c>
       <c r="F55">
-        <v>-304</v>
+        <v>-567</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Feb 22, 2023 00:00</t>
+          <t>Mar 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B56">
-        <v>1835.04</v>
+        <v>1920.49</v>
       </c>
       <c r="C56">
-        <v>1846.01</v>
+        <v>1987.72</v>
       </c>
       <c r="D56">
-        <v>1823.48</v>
+        <v>1918.2</v>
       </c>
       <c r="E56">
-        <v>1825.14</v>
+        <v>1985.97</v>
       </c>
       <c r="F56">
-        <v>-990</v>
+        <v>6548</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>+3.30%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Feb 21, 2023 00:00</t>
+          <t>Mar 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B57">
-        <v>1841.62</v>
+        <v>1918.23</v>
       </c>
       <c r="C57">
-        <v>1843.81</v>
+        <v>1933.43</v>
       </c>
       <c r="D57">
-        <v>1830.21</v>
+        <v>1907.51</v>
       </c>
       <c r="E57">
-        <v>1834.9</v>
+        <v>1919.3</v>
       </c>
       <c r="F57">
-        <v>-672</v>
+        <v>107</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>+0.06%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Feb 20, 2023 00:00</t>
+          <t>Mar 15, 2023 00:00</t>
         </is>
       </c>
       <c r="B58">
-        <v>1840.58</v>
+        <v>1903.48</v>
       </c>
       <c r="C58">
-        <v>1847.47</v>
+        <v>1937.31</v>
       </c>
       <c r="D58">
-        <v>1837.23</v>
+        <v>1885.66</v>
       </c>
       <c r="E58">
-        <v>1841.18</v>
+        <v>1918.09</v>
       </c>
       <c r="F58">
-        <v>60</v>
+        <v>1461</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>+0.03%</t>
+          <t>+0.76%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Feb 17, 2023 00:00</t>
+          <t>Mar 14, 2023 00:00</t>
         </is>
       </c>
       <c r="B59">
-        <v>1836.68</v>
+        <v>1913.45</v>
       </c>
       <c r="C59">
-        <v>1843.57</v>
+        <v>1914.1</v>
       </c>
       <c r="D59">
-        <v>1818.89</v>
+        <v>1895.37</v>
       </c>
       <c r="E59">
-        <v>1842.03</v>
+        <v>1903.84</v>
       </c>
       <c r="F59">
-        <v>535</v>
+        <v>-961</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>+0.29%</t>
+          <t>-0.50%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Feb 16, 2023 00:00</t>
+          <t>Mar 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B60">
-        <v>1836.08</v>
+        <v>1880.78</v>
       </c>
       <c r="C60">
-        <v>1845.25</v>
+        <v>1914.57</v>
       </c>
       <c r="D60">
-        <v>1827.58</v>
+        <v>1871.45</v>
       </c>
       <c r="E60">
-        <v>1836.37</v>
+        <v>1913.37</v>
       </c>
       <c r="F60">
-        <v>29</v>
+        <v>3259</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>+0.02%</t>
+          <t>+1.70%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Feb 15, 2023 00:00</t>
+          <t>Mar 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B61">
-        <v>1854.03</v>
+        <v>1831.12</v>
       </c>
       <c r="C61">
-        <v>1860.01</v>
+        <v>1870.09</v>
       </c>
       <c r="D61">
-        <v>1830.44</v>
+        <v>1827.7</v>
       </c>
       <c r="E61">
-        <v>1835.79</v>
+        <v>1867.23</v>
       </c>
       <c r="F61">
-        <v>-1824</v>
+        <v>3611</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>+1.93%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Feb 14, 2023 00:00</t>
+          <t>Mar 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B62">
-        <v>1852.56</v>
+        <v>1813.77</v>
       </c>
       <c r="C62">
-        <v>1870.5</v>
+        <v>1835.64</v>
       </c>
       <c r="D62">
-        <v>1843.22</v>
+        <v>1811.87</v>
       </c>
       <c r="E62">
-        <v>1854.34</v>
+        <v>1830.74</v>
       </c>
       <c r="F62">
-        <v>178</v>
+        <v>1697</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>+0.10%</t>
+          <t>+0.93%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Feb 13, 2023 00:00</t>
+          <t>Mar 08, 2023 00:00</t>
         </is>
       </c>
       <c r="B63">
-        <v>1864.73</v>
+        <v>1813.49</v>
       </c>
       <c r="C63">
-        <v>1866.58</v>
+        <v>1824.22</v>
       </c>
       <c r="D63">
-        <v>1850.46</v>
+        <v>1809.35</v>
       </c>
       <c r="E63">
-        <v>1853.36</v>
+        <v>1813.66</v>
       </c>
       <c r="F63">
-        <v>-1137</v>
+        <v>17</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>+0.01%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Feb 10, 2023 00:00</t>
+          <t>Mar 07, 2023 00:00</t>
         </is>
       </c>
       <c r="B64">
-        <v>1860.75</v>
+        <v>1846.39</v>
       </c>
       <c r="C64">
-        <v>1872.15</v>
+        <v>1851.62</v>
       </c>
       <c r="D64">
-        <v>1852.73</v>
+        <v>1812.66</v>
       </c>
       <c r="E64">
-        <v>1865.4</v>
+        <v>1812.94</v>
       </c>
       <c r="F64">
-        <v>465</v>
+        <v>-3345</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>-1.85%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Feb 09, 2023 00:00</t>
+          <t>Mar 06, 2023 00:00</t>
         </is>
       </c>
       <c r="B65">
-        <v>1875.22</v>
+        <v>1855.24</v>
       </c>
       <c r="C65">
-        <v>1890.22</v>
+        <v>1858.28</v>
       </c>
       <c r="D65">
-        <v>1858.88</v>
+        <v>1845.05</v>
       </c>
       <c r="E65">
-        <v>1861.54</v>
+        <v>1846.56</v>
       </c>
       <c r="F65">
-        <v>-1368</v>
+        <v>-868</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Feb 08, 2023 00:00</t>
+          <t>Mar 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B66">
-        <v>1871.64</v>
+        <v>1835.57</v>
       </c>
       <c r="C66">
-        <v>1886.33</v>
+        <v>1856.29</v>
       </c>
       <c r="D66">
-        <v>1869.02</v>
+        <v>1835.57</v>
       </c>
       <c r="E66">
-        <v>1875.42</v>
+        <v>1854.65</v>
       </c>
       <c r="F66">
-        <v>378</v>
+        <v>1908</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>+0.20%</t>
+          <t>+1.03%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Feb 07, 2023 00:00</t>
+          <t>Mar 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B67">
-        <v>1867.26</v>
+        <v>1836.76</v>
       </c>
       <c r="C67">
-        <v>1884.32</v>
+        <v>1838.93</v>
       </c>
       <c r="D67">
-        <v>1864.93</v>
+        <v>1829.93</v>
       </c>
       <c r="E67">
-        <v>1873.66</v>
+        <v>1835.57</v>
       </c>
       <c r="F67">
-        <v>640</v>
+        <v>-119</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>+0.34%</t>
+          <t>-0.06%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Feb 06, 2023 00:00</t>
+          <t>Mar 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B68">
-        <v>1861.18</v>
+        <v>1826.63</v>
       </c>
       <c r="C68">
-        <v>1881.33</v>
+        <v>1844.5</v>
       </c>
       <c r="D68">
-        <v>1860.06</v>
+        <v>1823.05</v>
       </c>
       <c r="E68">
-        <v>1867.56</v>
+        <v>1836.55</v>
       </c>
       <c r="F68">
-        <v>638</v>
+        <v>992</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>+0.34%</t>
+          <t>+0.54%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Feb 03, 2023 00:00</t>
+          <t>Feb 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B69">
-        <v>1911.7</v>
+        <v>1816.83</v>
       </c>
       <c r="C69">
-        <v>1918.55</v>
+        <v>1831.15</v>
       </c>
       <c r="D69">
-        <v>1861.36</v>
+        <v>1804.72</v>
       </c>
       <c r="E69">
-        <v>1864.97</v>
+        <v>1826.63</v>
       </c>
       <c r="F69">
-        <v>-4673</v>
+        <v>980</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-2.51%</t>
+          <t>+0.54%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Feb 02, 2023 00:00</t>
+          <t>Feb 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B70">
-        <v>1950.87</v>
+        <v>1810.76</v>
       </c>
       <c r="C70">
-        <v>1959.67</v>
+        <v>1820.13</v>
       </c>
       <c r="D70">
-        <v>1911.28</v>
+        <v>1806.59</v>
       </c>
       <c r="E70">
-        <v>1912.57</v>
+        <v>1817.17</v>
       </c>
       <c r="F70">
-        <v>-3830</v>
+        <v>641</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>+0.35%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Feb 01, 2023 00:00</t>
+          <t>Feb 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B71">
-        <v>1927.16</v>
+        <v>1822.1</v>
       </c>
       <c r="C71">
-        <v>1954.5</v>
+        <v>1827.77</v>
       </c>
       <c r="D71">
-        <v>1920.5</v>
+        <v>1808.89</v>
       </c>
       <c r="E71">
-        <v>1950.06</v>
+        <v>1811.12</v>
       </c>
       <c r="F71">
-        <v>2290</v>
+        <v>-1098</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>+1.17%</t>
+          <t>-0.61%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jan 31, 2023 00:00</t>
+          <t>Feb 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B72">
-        <v>1921.86</v>
+        <v>1825.28</v>
       </c>
       <c r="C72">
-        <v>1931.11</v>
+        <v>1833.66</v>
       </c>
       <c r="D72">
-        <v>1900.7</v>
+        <v>1817.39</v>
       </c>
       <c r="E72">
-        <v>1928.06</v>
+        <v>1822.24</v>
       </c>
       <c r="F72">
-        <v>620</v>
+        <v>-304</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>-0.17%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jan 30, 2023 00:00</t>
+          <t>Feb 22, 2023 00:00</t>
         </is>
       </c>
       <c r="B73">
-        <v>1927.96</v>
+        <v>1835.04</v>
       </c>
       <c r="C73">
-        <v>1934.41</v>
+        <v>1846.01</v>
       </c>
       <c r="D73">
-        <v>1920.64</v>
+        <v>1823.48</v>
       </c>
       <c r="E73">
-        <v>1923.07</v>
+        <v>1825.14</v>
       </c>
       <c r="F73">
-        <v>-489</v>
+        <v>-990</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.54%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jan 27, 2023 00:00</t>
+          <t>Feb 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B74">
-        <v>1927.72</v>
+        <v>1841.62</v>
       </c>
       <c r="C74">
-        <v>1934.96</v>
+        <v>1843.81</v>
       </c>
       <c r="D74">
-        <v>1916.71</v>
+        <v>1830.21</v>
       </c>
       <c r="E74">
-        <v>1928.05</v>
+        <v>1834.9</v>
       </c>
       <c r="F74">
-        <v>33</v>
+        <v>-672</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>+0.02%</t>
+          <t>-0.37%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jan 26, 2023 00:00</t>
+          <t>Feb 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B75">
-        <v>1946.52</v>
+        <v>1840.58</v>
       </c>
       <c r="C75">
-        <v>1949.1</v>
+        <v>1847.47</v>
       </c>
       <c r="D75">
-        <v>1918.55</v>
+        <v>1837.23</v>
       </c>
       <c r="E75">
-        <v>1929.04</v>
+        <v>1841.18</v>
       </c>
       <c r="F75">
-        <v>-1748</v>
+        <v>60</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>+0.03%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Jan 25, 2023 00:00</t>
+          <t>Feb 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B76">
-        <v>1936.97</v>
+        <v>1836.68</v>
       </c>
       <c r="C76">
-        <v>1948</v>
+        <v>1843.57</v>
       </c>
       <c r="D76">
-        <v>1919.83</v>
+        <v>1818.89</v>
       </c>
       <c r="E76">
-        <v>1946.12</v>
+        <v>1842.03</v>
       </c>
       <c r="F76">
-        <v>915</v>
+        <v>535</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>+0.47%</t>
+          <t>+0.29%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Jan 24, 2023 00:00</t>
+          <t>Feb 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B77">
-        <v>1931.05</v>
+        <v>1836.08</v>
       </c>
       <c r="C77">
-        <v>1942.46</v>
+        <v>1845.25</v>
       </c>
       <c r="D77">
-        <v>1917.14</v>
+        <v>1827.58</v>
       </c>
       <c r="E77">
-        <v>1937.24</v>
+        <v>1836.37</v>
       </c>
       <c r="F77">
-        <v>619</v>
+        <v>29</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>+0.02%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jan 23, 2023 00:00</t>
+          <t>Feb 15, 2023 00:00</t>
         </is>
       </c>
       <c r="B78">
-        <v>1926</v>
+        <v>1854.03</v>
       </c>
       <c r="C78">
-        <v>1935.47</v>
+        <v>1860.01</v>
       </c>
       <c r="D78">
-        <v>1911.33</v>
+        <v>1830.44</v>
       </c>
       <c r="E78">
-        <v>1930.8</v>
+        <v>1835.79</v>
       </c>
       <c r="F78">
-        <v>480</v>
+        <v>-1824</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>-0.99%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Jan 20, 2023 00:00</t>
+          <t>Feb 14, 2023 00:00</t>
         </is>
       </c>
       <c r="B79">
-        <v>1931.16</v>
+        <v>1852.56</v>
       </c>
       <c r="C79">
-        <v>1937.47</v>
+        <v>1870.5</v>
       </c>
       <c r="D79">
-        <v>1920.65</v>
+        <v>1843.22</v>
       </c>
       <c r="E79">
-        <v>1926.11</v>
+        <v>1854.34</v>
       </c>
       <c r="F79">
-        <v>-505</v>
+        <v>178</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-0.26%</t>
+          <t>+0.10%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jan 19, 2023 00:00</t>
+          <t>Feb 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B80">
-        <v>1904.42</v>
+        <v>1864.73</v>
       </c>
       <c r="C80">
-        <v>1935.17</v>
+        <v>1866.58</v>
       </c>
       <c r="D80">
-        <v>1900.9</v>
+        <v>1850.46</v>
       </c>
       <c r="E80">
-        <v>1932.07</v>
+        <v>1853.36</v>
       </c>
       <c r="F80">
-        <v>2765</v>
+        <v>-1137</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>+1.43%</t>
+          <t>-0.61%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jan 18, 2023 00:00</t>
+          <t>Feb 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B81">
-        <v>1907.24</v>
+        <v>1860.75</v>
       </c>
       <c r="C81">
-        <v>1925.89</v>
+        <v>1872.15</v>
       </c>
       <c r="D81">
-        <v>1896.51</v>
+        <v>1852.73</v>
       </c>
       <c r="E81">
-        <v>1904.24</v>
+        <v>1865.4</v>
       </c>
       <c r="F81">
-        <v>-300</v>
+        <v>465</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>+0.25%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Jan 17, 2023 00:00</t>
+          <t>Feb 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B82">
-        <v>1914.88</v>
+        <v>1875.22</v>
       </c>
       <c r="C82">
-        <v>1918.98</v>
+        <v>1890.22</v>
       </c>
       <c r="D82">
-        <v>1903.71</v>
+        <v>1858.88</v>
       </c>
       <c r="E82">
-        <v>1908.49</v>
+        <v>1861.54</v>
       </c>
       <c r="F82">
-        <v>-639</v>
+        <v>-1368</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>-0.73%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Jan 16, 2023 00:00</t>
+          <t>Feb 08, 2023 00:00</t>
         </is>
       </c>
       <c r="B83">
-        <v>1919.38</v>
+        <v>1871.64</v>
       </c>
       <c r="C83">
-        <v>1928.92</v>
+        <v>1886.33</v>
       </c>
       <c r="D83">
-        <v>1910.82</v>
+        <v>1869.02</v>
       </c>
       <c r="E83">
-        <v>1915.35</v>
+        <v>1875.42</v>
       </c>
       <c r="F83">
-        <v>-403</v>
+        <v>378</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>+0.20%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jan 13, 2023 00:00</t>
+          <t>Feb 07, 2023 00:00</t>
         </is>
       </c>
       <c r="B84">
-        <v>1895.88</v>
+        <v>1867.26</v>
       </c>
       <c r="C84">
-        <v>1921.88</v>
+        <v>1884.32</v>
       </c>
       <c r="D84">
-        <v>1892.25</v>
+        <v>1864.93</v>
       </c>
       <c r="E84">
-        <v>1920.15</v>
+        <v>1873.66</v>
       </c>
       <c r="F84">
-        <v>2427</v>
+        <v>640</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>+1.26%</t>
+          <t>+0.34%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jan 12, 2023 00:00</t>
+          <t>Feb 06, 2023 00:00</t>
         </is>
       </c>
       <c r="B85">
-        <v>1875.51</v>
+        <v>1861.18</v>
       </c>
       <c r="C85">
-        <v>1901.58</v>
+        <v>1881.33</v>
       </c>
       <c r="D85">
-        <v>1872.15</v>
+        <v>1860.06</v>
       </c>
       <c r="E85">
-        <v>1896.72</v>
+        <v>1867.56</v>
       </c>
       <c r="F85">
-        <v>2121</v>
+        <v>638</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>+1.12%</t>
+          <t>+0.34%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Jan 11, 2023 00:00</t>
+          <t>Feb 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B86">
-        <v>1875.63</v>
+        <v>1911.7</v>
       </c>
       <c r="C86">
-        <v>1886.59</v>
+        <v>1918.55</v>
       </c>
       <c r="D86">
-        <v>1867.07</v>
+        <v>1861.36</v>
       </c>
       <c r="E86">
-        <v>1875.68</v>
+        <v>1864.97</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>-4673</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>+0.00%</t>
+          <t>-2.51%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jan 10, 2023 00:00</t>
+          <t>Feb 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B87">
-        <v>1870.88</v>
+        <v>1950.87</v>
       </c>
       <c r="C87">
-        <v>1880.71</v>
+        <v>1959.67</v>
       </c>
       <c r="D87">
-        <v>1867.71</v>
+        <v>1911.28</v>
       </c>
       <c r="E87">
-        <v>1876.89</v>
+        <v>1912.57</v>
       </c>
       <c r="F87">
-        <v>601</v>
+        <v>-3830</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jan 09, 2023 00:00</t>
+          <t>Feb 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B88">
-        <v>1866.47</v>
+        <v>1927.16</v>
       </c>
       <c r="C88">
-        <v>1881.48</v>
+        <v>1954.5</v>
       </c>
       <c r="D88">
-        <v>1866.28</v>
+        <v>1920.5</v>
       </c>
       <c r="E88">
-        <v>1871.63</v>
+        <v>1950.06</v>
       </c>
       <c r="F88">
-        <v>516</v>
+        <v>2290</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>+0.28%</t>
+          <t>+1.17%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jan 06, 2023 00:00</t>
+          <t>Jan 31, 2023 00:00</t>
         </is>
       </c>
       <c r="B89">
-        <v>1831.78</v>
+        <v>1921.86</v>
       </c>
       <c r="C89">
-        <v>1869.8</v>
+        <v>1931.11</v>
       </c>
       <c r="D89">
-        <v>1829.33</v>
+        <v>1900.7</v>
       </c>
       <c r="E89">
-        <v>1865.72</v>
+        <v>1928.06</v>
       </c>
       <c r="F89">
-        <v>3394</v>
+        <v>620</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>+1.82%</t>
+          <t>+0.32%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jan 05, 2023 00:00</t>
+          <t>Jan 30, 2023 00:00</t>
         </is>
       </c>
       <c r="B90">
-        <v>1853.76</v>
+        <v>1927.96</v>
       </c>
       <c r="C90">
-        <v>1858.95</v>
+        <v>1934.41</v>
       </c>
       <c r="D90">
-        <v>1825.06</v>
+        <v>1920.64</v>
       </c>
       <c r="E90">
-        <v>1832.87</v>
+        <v>1923.07</v>
       </c>
       <c r="F90">
-        <v>-2089</v>
+        <v>-489</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-1.14%</t>
+          <t>-0.25%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jan 04, 2023 00:00</t>
+          <t>Jan 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B91">
-        <v>1838.61</v>
+        <v>1927.72</v>
       </c>
       <c r="C91">
-        <v>1865.12</v>
+        <v>1934.96</v>
       </c>
       <c r="D91">
-        <v>1836.12</v>
+        <v>1916.71</v>
       </c>
       <c r="E91">
-        <v>1854.61</v>
+        <v>1928.05</v>
       </c>
       <c r="F91">
-        <v>1600</v>
+        <v>33</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>+0.86%</t>
+          <t>+0.02%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jan 03, 2023 00:00</t>
+          <t>Jan 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B92">
-        <v>1826.72</v>
+        <v>1946.52</v>
       </c>
       <c r="C92">
-        <v>1849.96</v>
+        <v>1949.1</v>
       </c>
       <c r="D92">
-        <v>1823.56</v>
+        <v>1918.55</v>
       </c>
       <c r="E92">
-        <v>1839.47</v>
+        <v>1929.04</v>
       </c>
       <c r="F92">
-        <v>1275</v>
+        <v>-1748</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>+0.69%</t>
+          <t>-0.91%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dec 30, 2022 00:00</t>
+          <t>Jan 25, 2023 00:00</t>
         </is>
       </c>
       <c r="B93">
-        <v>1813.93</v>
+        <v>1936.97</v>
       </c>
       <c r="C93">
-        <v>1826.1</v>
+        <v>1948</v>
       </c>
       <c r="D93">
-        <v>1813.37</v>
+        <v>1919.83</v>
       </c>
       <c r="E93">
-        <v>1823.79</v>
+        <v>1946.12</v>
       </c>
       <c r="F93">
-        <v>986</v>
+        <v>915</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>+0.54%</t>
+          <t>+0.47%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dec 29, 2022 00:00</t>
+          <t>Jan 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B94">
-        <v>1804.24</v>
+        <v>1931.05</v>
       </c>
       <c r="C94">
-        <v>1820.13</v>
+        <v>1942.46</v>
       </c>
       <c r="D94">
-        <v>1803.6</v>
+        <v>1917.14</v>
       </c>
       <c r="E94">
-        <v>1814.78</v>
+        <v>1937.24</v>
       </c>
       <c r="F94">
-        <v>1054</v>
+        <v>619</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>+0.58%</t>
+          <t>+0.32%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dec 28, 2022 00:00</t>
+          <t>Jan 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B95">
-        <v>1813.3</v>
+        <v>1926</v>
       </c>
       <c r="C95">
-        <v>1814.5</v>
+        <v>1935.47</v>
       </c>
       <c r="D95">
-        <v>1797.02</v>
+        <v>1911.33</v>
       </c>
       <c r="E95">
-        <v>1804.22</v>
+        <v>1930.8</v>
       </c>
       <c r="F95">
-        <v>-908</v>
+        <v>480</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>+0.25%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dec 27, 2022 00:00</t>
+          <t>Jan 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B96">
-        <v>1799.95</v>
+        <v>1931.16</v>
       </c>
       <c r="C96">
-        <v>1833.26</v>
+        <v>1937.47</v>
       </c>
       <c r="D96">
-        <v>1799.95</v>
+        <v>1920.65</v>
       </c>
       <c r="E96">
-        <v>1813.48</v>
+        <v>1926.11</v>
       </c>
       <c r="F96">
-        <v>1353</v>
+        <v>-505</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>+0.75%</t>
+          <t>-0.26%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dec 23, 2022 00:00</t>
+          <t>Jan 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B97">
-        <v>1792.81</v>
+        <v>1904.42</v>
       </c>
       <c r="C97">
-        <v>1803.29</v>
+        <v>1935.17</v>
       </c>
       <c r="D97">
-        <v>1791.14</v>
+        <v>1900.9</v>
       </c>
       <c r="E97">
-        <v>1798.25</v>
+        <v>1932.07</v>
       </c>
       <c r="F97">
-        <v>544</v>
+        <v>2765</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>+0.30%</t>
+          <t>+1.43%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Dec 22, 2022 00:00</t>
+          <t>Jan 18, 2023 00:00</t>
         </is>
       </c>
       <c r="B98">
-        <v>1813.06</v>
+        <v>1907.24</v>
       </c>
       <c r="C98">
-        <v>1820.41</v>
+        <v>1925.89</v>
       </c>
       <c r="D98">
-        <v>1784.78</v>
+        <v>1896.51</v>
       </c>
       <c r="E98">
-        <v>1792.38</v>
+        <v>1904.24</v>
       </c>
       <c r="F98">
-        <v>-2068</v>
+        <v>-300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>-0.16%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dec 21, 2022 00:00</t>
+          <t>Jan 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B99">
-        <v>1816.56</v>
+        <v>1914.88</v>
       </c>
       <c r="C99">
-        <v>1823.8</v>
+        <v>1918.98</v>
       </c>
       <c r="D99">
-        <v>1811.83</v>
+        <v>1903.71</v>
       </c>
       <c r="E99">
-        <v>1814.09</v>
+        <v>1908.49</v>
       </c>
       <c r="F99">
-        <v>-247</v>
+        <v>-639</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>-0.33%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Dec 20, 2022 00:00</t>
+          <t>Jan 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B100">
-        <v>1786.66</v>
+        <v>1919.38</v>
       </c>
       <c r="C100">
-        <v>1821.15</v>
+        <v>1928.92</v>
       </c>
       <c r="D100">
-        <v>1784.56</v>
+        <v>1910.82</v>
       </c>
       <c r="E100">
-        <v>1817.6</v>
+        <v>1915.35</v>
       </c>
       <c r="F100">
-        <v>3094</v>
+        <v>-403</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>+1.70%</t>
+          <t>-0.21%</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dec 19, 2022 00:00</t>
+          <t>Jan 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B101">
-        <v>1792.89</v>
+        <v>1895.88</v>
       </c>
       <c r="C101">
-        <v>1798.74</v>
+        <v>1921.88</v>
       </c>
       <c r="D101">
-        <v>1783.76</v>
+        <v>1892.25</v>
       </c>
       <c r="E101">
-        <v>1787.58</v>
+        <v>1920.15</v>
       </c>
       <c r="F101">
-        <v>-531</v>
+        <v>2427</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>+1.26%</t>
         </is>
       </c>
     </row>

--- a/xauusd.xlsx
+++ b/xauusd.xlsx
@@ -397,2700 +397,2700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jun 02, 2023 00:00</t>
+          <t>Jun 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B2">
-        <v>1977.19</v>
+        <v>1959.98</v>
       </c>
       <c r="C2">
-        <v>1983.39</v>
+        <v>1965.09</v>
       </c>
       <c r="D2">
-        <v>1947.94</v>
+        <v>1956.35</v>
       </c>
       <c r="E2">
-        <v>1948.23</v>
+        <v>1963.32</v>
       </c>
       <c r="F2">
-        <v>-2896</v>
+        <v>334</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>+0.17%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jun 01, 2023 00:00</t>
+          <t>Jun 12, 2023 00:00</t>
         </is>
       </c>
       <c r="B3">
-        <v>1962.72</v>
+        <v>1960.09</v>
       </c>
       <c r="C3">
-        <v>1983.09</v>
+        <v>1960.9</v>
       </c>
       <c r="D3">
-        <v>1953.31</v>
+        <v>1949.58</v>
       </c>
       <c r="E3">
-        <v>1977.37</v>
+        <v>1959.96</v>
       </c>
       <c r="F3">
-        <v>1465</v>
+        <v>-13</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+0.74%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>May 31, 2023 00:00</t>
+          <t>Jun 11, 2023 00:00</t>
         </is>
       </c>
       <c r="B4">
-        <v>1959.21</v>
+        <v>1963.1</v>
       </c>
       <c r="C4">
-        <v>1974.7</v>
+        <v>1963.1</v>
       </c>
       <c r="D4">
-        <v>1953.64</v>
+        <v>1960.71</v>
       </c>
       <c r="E4">
-        <v>1962.55</v>
+        <v>1960.71</v>
       </c>
       <c r="F4">
-        <v>334</v>
+        <v>-239</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+0.17%</t>
+          <t>-0.12%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>May 30, 2023 00:00</t>
+          <t>Jun 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B5">
-        <v>1943.42</v>
+        <v>1965.2</v>
       </c>
       <c r="C5">
-        <v>1963.47</v>
+        <v>1965.2</v>
       </c>
       <c r="D5">
-        <v>1931.99</v>
+        <v>1964.92</v>
       </c>
       <c r="E5">
-        <v>1959.23</v>
+        <v>1965.16</v>
       </c>
       <c r="F5">
-        <v>1581</v>
+        <v>-4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+0.81%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>May 29, 2023 00:00</t>
+          <t>Jun 08, 2023 00:00</t>
         </is>
       </c>
       <c r="B6">
-        <v>1941.94</v>
+        <v>1944.23</v>
       </c>
       <c r="C6">
-        <v>1949.7</v>
+        <v>1944.23</v>
       </c>
       <c r="D6">
-        <v>1940.18</v>
+        <v>1944.23</v>
       </c>
       <c r="E6">
-        <v>1942.96</v>
+        <v>1944.23</v>
       </c>
       <c r="F6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+0.05%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>May 26, 2023 00:00</t>
+          <t>Jun 07, 2023 00:00</t>
         </is>
       </c>
       <c r="B7">
-        <v>1940.33</v>
+        <v>1963.29</v>
       </c>
       <c r="C7">
-        <v>1957.21</v>
+        <v>1963.29</v>
       </c>
       <c r="D7">
-        <v>1936.7</v>
+        <v>1963.29</v>
       </c>
       <c r="E7">
-        <v>1946.48</v>
+        <v>1963.29</v>
       </c>
       <c r="F7">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>May 25, 2023 00:00</t>
+          <t>Jun 06, 2023 00:00</t>
         </is>
       </c>
       <c r="B8">
-        <v>1957.39</v>
+        <v>1961.4</v>
       </c>
       <c r="C8">
-        <v>1964.76</v>
+        <v>1961.4</v>
       </c>
       <c r="D8">
-        <v>1938.86</v>
+        <v>1961.29</v>
       </c>
       <c r="E8">
-        <v>1940.69</v>
+        <v>1961.29</v>
       </c>
       <c r="F8">
-        <v>-1670</v>
+        <v>-11</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.86%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>May 24, 2023 00:00</t>
+          <t>Jun 05, 2023 00:00</t>
         </is>
       </c>
       <c r="B9">
-        <v>1975.1</v>
+        <v>1949.27</v>
       </c>
       <c r="C9">
-        <v>1985.28</v>
+        <v>1949.27</v>
       </c>
       <c r="D9">
-        <v>1956.71</v>
+        <v>1949.04</v>
       </c>
       <c r="E9">
-        <v>1957.16</v>
+        <v>1949.04</v>
       </c>
       <c r="F9">
-        <v>-1794</v>
+        <v>-23</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>May 23, 2023 00:00</t>
+          <t>Jun 04, 2023 00:00</t>
         </is>
       </c>
       <c r="B10">
-        <v>1971.82</v>
+        <v>1950.6</v>
       </c>
       <c r="C10">
-        <v>1977.67</v>
+        <v>1950.6</v>
       </c>
       <c r="D10">
-        <v>1954.22</v>
+        <v>1950.6</v>
       </c>
       <c r="E10">
-        <v>1974.91</v>
+        <v>1950.6</v>
       </c>
       <c r="F10">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+0.16%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>May 22, 2023 00:00</t>
+          <t>Jun 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B11">
-        <v>1977.53</v>
+        <v>1977.15</v>
       </c>
       <c r="C11">
-        <v>1982.61</v>
+        <v>1977.39</v>
       </c>
       <c r="D11">
-        <v>1968.84</v>
+        <v>1977.15</v>
       </c>
       <c r="E11">
-        <v>1971.66</v>
+        <v>1977.39</v>
       </c>
       <c r="F11">
-        <v>-587</v>
+        <v>24</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>+0.01%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>May 19, 2023 00:00</t>
+          <t>Jun 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B12">
-        <v>1957.88</v>
+        <v>1966.22</v>
       </c>
       <c r="C12">
-        <v>1984.19</v>
+        <v>1966.36</v>
       </c>
       <c r="D12">
-        <v>1953.96</v>
+        <v>1966.17</v>
       </c>
       <c r="E12">
-        <v>1977.56</v>
+        <v>1966.17</v>
       </c>
       <c r="F12">
-        <v>1968</v>
+        <v>-5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>May 18, 2023 00:00</t>
+          <t>May 31, 2023 00:00</t>
         </is>
       </c>
       <c r="B13">
-        <v>1981.05</v>
+        <v>1958.5</v>
       </c>
       <c r="C13">
-        <v>1985.95</v>
+        <v>1958.6</v>
       </c>
       <c r="D13">
-        <v>1951.91</v>
+        <v>1958.5</v>
       </c>
       <c r="E13">
-        <v>1957.39</v>
+        <v>1958.6</v>
       </c>
       <c r="F13">
-        <v>-2366</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.21%</t>
+          <t>+0.01%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>May 17, 2023 00:00</t>
+          <t>May 30, 2023 00:00</t>
         </is>
       </c>
       <c r="B14">
-        <v>1989.06</v>
+        <v>1941.54</v>
       </c>
       <c r="C14">
-        <v>1992.96</v>
+        <v>1941.55</v>
       </c>
       <c r="D14">
-        <v>1974.98</v>
+        <v>1941.35</v>
       </c>
       <c r="E14">
-        <v>1981.51</v>
+        <v>1941.35</v>
       </c>
       <c r="F14">
-        <v>-755</v>
+        <v>-19</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>May 16, 2023 00:00</t>
+          <t>May 29, 2023 00:00</t>
         </is>
       </c>
       <c r="B15">
-        <v>2015.81</v>
+        <v>1944.04</v>
       </c>
       <c r="C15">
-        <v>2018.31</v>
+        <v>1944.04</v>
       </c>
       <c r="D15">
-        <v>1985.42</v>
+        <v>1944.04</v>
       </c>
       <c r="E15">
-        <v>1988.78</v>
+        <v>1944.04</v>
       </c>
       <c r="F15">
-        <v>-2703</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.36%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>May 15, 2023 00:00</t>
+          <t>May 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B16">
-        <v>2007.9</v>
+        <v>1946.6</v>
       </c>
       <c r="C16">
-        <v>2022.13</v>
+        <v>1946.6</v>
       </c>
       <c r="D16">
-        <v>2007.18</v>
+        <v>1946.13</v>
       </c>
       <c r="E16">
-        <v>2016.34</v>
+        <v>1946.13</v>
       </c>
       <c r="F16">
-        <v>844</v>
+        <v>-47</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+0.42%</t>
+          <t>-0.02%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>May 12, 2023 00:00</t>
+          <t>May 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B17">
-        <v>2014.84</v>
+        <v>1940.92</v>
       </c>
       <c r="C17">
-        <v>2022.56</v>
+        <v>1940.92</v>
       </c>
       <c r="D17">
-        <v>2000.89</v>
+        <v>1940.92</v>
       </c>
       <c r="E17">
-        <v>2010.78</v>
+        <v>1940.92</v>
       </c>
       <c r="F17">
-        <v>-406</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>May 11, 2023 00:00</t>
+          <t>May 25, 2023 00:00</t>
         </is>
       </c>
       <c r="B18">
-        <v>2030</v>
+        <v>1960.03</v>
       </c>
       <c r="C18">
-        <v>2041.19</v>
+        <v>1960.03</v>
       </c>
       <c r="D18">
-        <v>2011.1</v>
+        <v>1959.75</v>
       </c>
       <c r="E18">
-        <v>2014.92</v>
+        <v>1959.75</v>
       </c>
       <c r="F18">
-        <v>-1508</v>
+        <v>-28</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.75%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>May 10, 2023 00:00</t>
+          <t>May 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B19">
-        <v>2033.87</v>
+        <v>1975.19</v>
       </c>
       <c r="C19">
-        <v>2048.13</v>
+        <v>1975.19</v>
       </c>
       <c r="D19">
-        <v>2021.47</v>
+        <v>1975.19</v>
       </c>
       <c r="E19">
-        <v>2030.17</v>
+        <v>1975.19</v>
       </c>
       <c r="F19">
-        <v>-370</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>May 09, 2023 00:00</t>
+          <t>May 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B20">
-        <v>2020.84</v>
+        <v>1969.94</v>
       </c>
       <c r="C20">
-        <v>2037.57</v>
+        <v>1969.94</v>
       </c>
       <c r="D20">
-        <v>2019.46</v>
+        <v>1969.94</v>
       </c>
       <c r="E20">
-        <v>2034.38</v>
+        <v>1969.94</v>
       </c>
       <c r="F20">
-        <v>1354</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+0.67%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>May 08, 2023 00:00</t>
+          <t>May 22, 2023 00:00</t>
         </is>
       </c>
       <c r="B21">
-        <v>2016.06</v>
+        <v>1981.07</v>
       </c>
       <c r="C21">
-        <v>2029.36</v>
+        <v>1982.32</v>
       </c>
       <c r="D21">
-        <v>2014.21</v>
+        <v>1970.51</v>
       </c>
       <c r="E21">
-        <v>2021.33</v>
+        <v>1973.32</v>
       </c>
       <c r="F21">
-        <v>527</v>
+        <v>-775</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+0.26%</t>
+          <t>-0.39%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>May 05, 2023 00:00</t>
+          <t>May 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B22">
-        <v>2049.73</v>
+        <v>1980.1</v>
       </c>
       <c r="C22">
-        <v>2052.93</v>
+        <v>1981.36</v>
       </c>
       <c r="D22">
-        <v>1999.46</v>
+        <v>1977.51</v>
       </c>
       <c r="E22">
-        <v>2015.92</v>
+        <v>1980.73</v>
       </c>
       <c r="F22">
-        <v>-3381</v>
+        <v>63</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1.68%</t>
+          <t>+0.03%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>May 04, 2023 00:00</t>
+          <t>May 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B23">
-        <v>2044.73</v>
+        <v>1958.38</v>
       </c>
       <c r="C23">
-        <v>2078.37</v>
+        <v>1983.42</v>
       </c>
       <c r="D23">
-        <v>2030.33</v>
+        <v>1954.03</v>
       </c>
       <c r="E23">
-        <v>2050.09</v>
+        <v>1977.58</v>
       </c>
       <c r="F23">
-        <v>536</v>
+        <v>1920</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+0.26%</t>
+          <t>+0.97%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>May 03, 2023 00:00</t>
+          <t>May 18, 2023 00:00</t>
         </is>
       </c>
       <c r="B24">
-        <v>2016.45</v>
+        <v>1982.62</v>
       </c>
       <c r="C24">
-        <v>2040.35</v>
+        <v>1985.76</v>
       </c>
       <c r="D24">
-        <v>2007.18</v>
+        <v>1951.8</v>
       </c>
       <c r="E24">
-        <v>2038.52</v>
+        <v>1958.3</v>
       </c>
       <c r="F24">
-        <v>2207</v>
+        <v>-2432</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+1.08%</t>
+          <t>-1.24%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>May 02, 2023 00:00</t>
+          <t>May 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B25">
-        <v>1981.63</v>
+        <v>1988.8</v>
       </c>
       <c r="C25">
-        <v>2019.35</v>
+        <v>1992.87</v>
       </c>
       <c r="D25">
-        <v>1978.41</v>
+        <v>1975.2</v>
       </c>
       <c r="E25">
-        <v>2016.51</v>
+        <v>1982.62</v>
       </c>
       <c r="F25">
-        <v>3488</v>
+        <v>-618</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>+1.73%</t>
+          <t>-0.31%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>May 01, 2023 00:00</t>
+          <t>May 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B26">
-        <v>1991.03</v>
+        <v>2014.35</v>
       </c>
       <c r="C26">
-        <v>2005.98</v>
+        <v>2018.21</v>
       </c>
       <c r="D26">
-        <v>1977.04</v>
+        <v>1984.7</v>
       </c>
       <c r="E26">
-        <v>1982.41</v>
+        <v>1989.5</v>
       </c>
       <c r="F26">
-        <v>-862</v>
+        <v>-2485</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>-1.25%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Apr 28, 2023 00:00</t>
+          <t>May 15, 2023 00:00</t>
         </is>
       </c>
       <c r="B27">
-        <v>1987.99</v>
+        <v>2009.53</v>
       </c>
       <c r="C27">
-        <v>1995</v>
+        <v>2021.82</v>
       </c>
       <c r="D27">
-        <v>1976.27</v>
+        <v>2008.63</v>
       </c>
       <c r="E27">
-        <v>1989.65</v>
+        <v>2014.35</v>
       </c>
       <c r="F27">
-        <v>166</v>
+        <v>482</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+0.08%</t>
+          <t>+0.24%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apr 27, 2023 00:00</t>
+          <t>May 14, 2023 00:00</t>
         </is>
       </c>
       <c r="B28">
-        <v>1989.95</v>
+        <v>2010.6</v>
       </c>
       <c r="C28">
-        <v>2003.19</v>
+        <v>2026.59</v>
       </c>
       <c r="D28">
-        <v>1974.11</v>
+        <v>2007.21</v>
       </c>
       <c r="E28">
-        <v>1987.78</v>
+        <v>2009.72</v>
       </c>
       <c r="F28">
-        <v>-217</v>
+        <v>-88</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-0.04%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Apr 26, 2023 00:00</t>
+          <t>May 12, 2023 00:00</t>
         </is>
       </c>
       <c r="B29">
-        <v>1996.66</v>
+        <v>2016.37</v>
       </c>
       <c r="C29">
-        <v>2009.26</v>
+        <v>2022.06</v>
       </c>
       <c r="D29">
-        <v>1983.3</v>
+        <v>2000.91</v>
       </c>
       <c r="E29">
-        <v>1989.25</v>
+        <v>2010.86</v>
       </c>
       <c r="F29">
-        <v>-741</v>
+        <v>-551</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>-0.27%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Apr 25, 2023 00:00</t>
+          <t>May 11, 2023 00:00</t>
         </is>
       </c>
       <c r="B30">
-        <v>1988.83</v>
+        <v>2031.21</v>
       </c>
       <c r="C30">
-        <v>2003.8</v>
+        <v>2039.93</v>
       </c>
       <c r="D30">
-        <v>1976.05</v>
+        <v>2011.07</v>
       </c>
       <c r="E30">
-        <v>1997.01</v>
+        <v>2016.24</v>
       </c>
       <c r="F30">
-        <v>818</v>
+        <v>-1497</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>+0.41%</t>
+          <t>-0.74%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Apr 24, 2023 00:00</t>
+          <t>May 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B31">
-        <v>1981.28</v>
+        <v>2036.57</v>
       </c>
       <c r="C31">
-        <v>1990.81</v>
+        <v>2048.01</v>
       </c>
       <c r="D31">
-        <v>1974.09</v>
+        <v>2021.61</v>
       </c>
       <c r="E31">
-        <v>1988.96</v>
+        <v>2031.36</v>
       </c>
       <c r="F31">
-        <v>768</v>
+        <v>-521</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>+0.39%</t>
+          <t>-0.26%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Apr 21, 2023 00:00</t>
+          <t>May 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B32">
-        <v>2003.94</v>
+        <v>2021</v>
       </c>
       <c r="C32">
-        <v>2005.47</v>
+        <v>2037.46</v>
       </c>
       <c r="D32">
-        <v>1971.58</v>
+        <v>2019</v>
       </c>
       <c r="E32">
-        <v>1982.73</v>
+        <v>2036.27</v>
       </c>
       <c r="F32">
-        <v>-2121</v>
+        <v>1527</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>+0.75%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Apr 20, 2023 00:00</t>
+          <t>May 08, 2023 00:00</t>
         </is>
       </c>
       <c r="B33">
-        <v>1994.12</v>
+        <v>2015.8</v>
       </c>
       <c r="C33">
-        <v>2012.33</v>
+        <v>2029.18</v>
       </c>
       <c r="D33">
-        <v>1990.43</v>
+        <v>2015.23</v>
       </c>
       <c r="E33">
-        <v>2004.66</v>
+        <v>2021.22</v>
       </c>
       <c r="F33">
-        <v>1054</v>
+        <v>542</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>+0.53%</t>
+          <t>+0.27%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Apr 19, 2023 00:00</t>
+          <t>May 07, 2023 00:00</t>
         </is>
       </c>
       <c r="B34">
-        <v>2005.12</v>
+        <v>2016.67</v>
       </c>
       <c r="C34">
-        <v>2008.1</v>
+        <v>2050.25</v>
       </c>
       <c r="D34">
-        <v>1969.19</v>
+        <v>2014</v>
       </c>
       <c r="E34">
-        <v>1994.6</v>
+        <v>2015.95</v>
       </c>
       <c r="F34">
-        <v>-1052</v>
+        <v>-72</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.53%</t>
+          <t>-0.04%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Apr 18, 2023 00:00</t>
+          <t>May 05, 2023 00:00</t>
         </is>
       </c>
       <c r="B35">
-        <v>1994.83</v>
+        <v>2049.79</v>
       </c>
       <c r="C35">
-        <v>2011.8</v>
+        <v>2052.75</v>
       </c>
       <c r="D35">
-        <v>1991.18</v>
+        <v>1999.63</v>
       </c>
       <c r="E35">
-        <v>2005.23</v>
+        <v>2016.58</v>
       </c>
       <c r="F35">
-        <v>1040</v>
+        <v>-3321</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>+0.52%</t>
+          <t>-1.65%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Apr 17, 2023 00:00</t>
+          <t>May 04, 2023 00:00</t>
         </is>
       </c>
       <c r="B36">
-        <v>1999.35</v>
+        <v>2052.78</v>
       </c>
       <c r="C36">
-        <v>2015</v>
+        <v>2059.39</v>
       </c>
       <c r="D36">
-        <v>1981.14</v>
+        <v>2030.77</v>
       </c>
       <c r="E36">
-        <v>1994.99</v>
+        <v>2049.8</v>
       </c>
       <c r="F36">
-        <v>-436</v>
+        <v>-298</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>-0.15%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Apr 14, 2023 00:00</t>
+          <t>May 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B37">
-        <v>2040.33</v>
+        <v>2015.1</v>
       </c>
       <c r="C37">
-        <v>2047.34</v>
+        <v>2071.32</v>
       </c>
       <c r="D37">
-        <v>1992.34</v>
+        <v>2008.9</v>
       </c>
       <c r="E37">
-        <v>2004.53</v>
+        <v>2051.93</v>
       </c>
       <c r="F37">
-        <v>-3580</v>
+        <v>3683</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>+1.79%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Apr 13, 2023 00:00</t>
+          <t>May 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B38">
-        <v>2014.36</v>
+        <v>1981.63</v>
       </c>
       <c r="C38">
-        <v>2048.71</v>
+        <v>2018.94</v>
       </c>
       <c r="D38">
-        <v>2013.77</v>
+        <v>1978.5</v>
       </c>
       <c r="E38">
-        <v>2039.94</v>
+        <v>2015.84</v>
       </c>
       <c r="F38">
-        <v>2558</v>
+        <v>3421</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>+1.25%</t>
+          <t>+1.70%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Apr 12, 2023 00:00</t>
+          <t>May 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B39">
-        <v>2003.45</v>
+        <v>1986.95</v>
       </c>
       <c r="C39">
-        <v>2028.22</v>
+        <v>2005.35</v>
       </c>
       <c r="D39">
-        <v>2001.36</v>
+        <v>1977.12</v>
       </c>
       <c r="E39">
-        <v>2014.77</v>
+        <v>1981.13</v>
       </c>
       <c r="F39">
-        <v>1132</v>
+        <v>-582</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>+0.56%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Apr 11, 2023 00:00</t>
+          <t>Apr 30, 2023 00:00</t>
         </is>
       </c>
       <c r="B40">
-        <v>1990.92</v>
+        <v>1989.42</v>
       </c>
       <c r="C40">
-        <v>2007.43</v>
+        <v>2008.25</v>
       </c>
       <c r="D40">
-        <v>1988.72</v>
+        <v>1986.2</v>
       </c>
       <c r="E40">
-        <v>2003.53</v>
+        <v>1986.72</v>
       </c>
       <c r="F40">
-        <v>1261</v>
+        <v>-270</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>+0.63%</t>
+          <t>-0.14%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Apr 10, 2023 00:00</t>
+          <t>Apr 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B41">
-        <v>1993.77</v>
+        <v>1987.17</v>
       </c>
       <c r="C41">
-        <v>2006.39</v>
+        <v>1994.59</v>
       </c>
       <c r="D41">
-        <v>1981.62</v>
+        <v>1977.07</v>
       </c>
       <c r="E41">
-        <v>1991.14</v>
+        <v>1989.44</v>
       </c>
       <c r="F41">
-        <v>-263</v>
+        <v>227</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>+0.11%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Apr 06, 2023 00:00</t>
+          <t>Apr 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B42">
-        <v>2020.83</v>
+        <v>1991.52</v>
       </c>
       <c r="C42">
-        <v>2021.31</v>
+        <v>2003.07</v>
       </c>
       <c r="D42">
-        <v>2000.79</v>
+        <v>1975.03</v>
       </c>
       <c r="E42">
-        <v>2007.02</v>
+        <v>1986.97</v>
       </c>
       <c r="F42">
-        <v>-1381</v>
+        <v>-455</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-0.23%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Apr 05, 2023 00:00</t>
+          <t>Apr 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B43">
-        <v>2019.95</v>
+        <v>2000.44</v>
       </c>
       <c r="C43">
-        <v>2032.04</v>
+        <v>2008.06</v>
       </c>
       <c r="D43">
-        <v>2009.9</v>
+        <v>1983.51</v>
       </c>
       <c r="E43">
-        <v>2020.7</v>
+        <v>1991.62</v>
       </c>
       <c r="F43">
-        <v>75</v>
+        <v>-882</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>+0.04%</t>
+          <t>-0.44%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Apr 04, 2023 00:00</t>
+          <t>Apr 25, 2023 00:00</t>
         </is>
       </c>
       <c r="B44">
-        <v>1984.2</v>
+        <v>1994.97</v>
       </c>
       <c r="C44">
-        <v>2024.93</v>
+        <v>2003.6</v>
       </c>
       <c r="D44">
-        <v>1976.86</v>
+        <v>1975.91</v>
       </c>
       <c r="E44">
-        <v>2020.48</v>
+        <v>2000.07</v>
       </c>
       <c r="F44">
-        <v>3628</v>
+        <v>510</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>+1.80%</t>
+          <t>+0.25%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Apr 03, 2023 00:00</t>
+          <t>Apr 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B45">
-        <v>1970.36</v>
+        <v>1984.62</v>
       </c>
       <c r="C45">
-        <v>1990.46</v>
+        <v>1996.39</v>
       </c>
       <c r="D45">
-        <v>1949.7</v>
+        <v>1974.76</v>
       </c>
       <c r="E45">
-        <v>1984.37</v>
+        <v>1995.35</v>
       </c>
       <c r="F45">
-        <v>1401</v>
+        <v>1073</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>+0.71%</t>
+          <t>+0.54%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mar 31, 2023 00:00</t>
+          <t>Apr 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B46">
-        <v>1980.41</v>
+        <v>2001.9</v>
       </c>
       <c r="C46">
-        <v>1987.55</v>
+        <v>2001.9</v>
       </c>
       <c r="D46">
-        <v>1966.85</v>
+        <v>1981.1</v>
       </c>
       <c r="E46">
-        <v>1969.47</v>
+        <v>1984.59</v>
       </c>
       <c r="F46">
-        <v>-1094</v>
+        <v>-1731</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-0.56%</t>
+          <t>-0.87%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mar 30, 2023 00:00</t>
+          <t>Apr 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B47">
-        <v>1963.71</v>
+        <v>2005.27</v>
       </c>
       <c r="C47">
-        <v>1984.29</v>
+        <v>2005.38</v>
       </c>
       <c r="D47">
-        <v>1955.32</v>
+        <v>1972.01</v>
       </c>
       <c r="E47">
-        <v>1980.15</v>
+        <v>1982.91</v>
       </c>
       <c r="F47">
-        <v>1644</v>
+        <v>-2236</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>+0.83%</t>
+          <t>-1.13%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mar 29, 2023 00:00</t>
+          <t>Apr 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B48">
-        <v>1973.26</v>
+        <v>1993.63</v>
       </c>
       <c r="C48">
-        <v>1974.34</v>
+        <v>2012.1</v>
       </c>
       <c r="D48">
-        <v>1958.64</v>
+        <v>1990.59</v>
       </c>
       <c r="E48">
-        <v>1964.32</v>
+        <v>2004.97</v>
       </c>
       <c r="F48">
-        <v>-894</v>
+        <v>1134</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.46%</t>
+          <t>+0.57%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mar 28, 2023 00:00</t>
+          <t>Apr 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B49">
-        <v>1956.26</v>
+        <v>2005.74</v>
       </c>
       <c r="C49">
-        <v>1975.25</v>
+        <v>2007.9</v>
       </c>
       <c r="D49">
-        <v>1949.1</v>
+        <v>1969.4</v>
       </c>
       <c r="E49">
-        <v>1973.51</v>
+        <v>1993.6</v>
       </c>
       <c r="F49">
-        <v>1725</v>
+        <v>-1214</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>+0.87%</t>
+          <t>-0.61%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mar 27, 2023 00:00</t>
+          <t>Apr 18, 2023 00:00</t>
         </is>
       </c>
       <c r="B50">
-        <v>1978.89</v>
+        <v>1993.87</v>
       </c>
       <c r="C50">
-        <v>1979.53</v>
+        <v>2011.58</v>
       </c>
       <c r="D50">
-        <v>1943.94</v>
+        <v>1991.37</v>
       </c>
       <c r="E50">
-        <v>1956.34</v>
+        <v>2005.48</v>
       </c>
       <c r="F50">
-        <v>-2255</v>
+        <v>1161</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>+0.58%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mar 24, 2023 00:00</t>
+          <t>Apr 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B51">
-        <v>1993.13</v>
+        <v>2002.62</v>
       </c>
       <c r="C51">
-        <v>2002.89</v>
+        <v>2014.83</v>
       </c>
       <c r="D51">
-        <v>1975.14</v>
+        <v>1981.46</v>
       </c>
       <c r="E51">
-        <v>1977.66</v>
+        <v>1993.9</v>
       </c>
       <c r="F51">
-        <v>-1547</v>
+        <v>-872</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-0.44%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mar 23, 2023 00:00</t>
+          <t>Apr 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B52">
-        <v>1970.21</v>
+        <v>2004.03</v>
       </c>
       <c r="C52">
-        <v>2003.28</v>
+        <v>2022.75</v>
       </c>
       <c r="D52">
-        <v>1964.52</v>
+        <v>1998.3</v>
       </c>
       <c r="E52">
-        <v>1993.71</v>
+        <v>2002.8</v>
       </c>
       <c r="F52">
-        <v>2350</v>
+        <v>-123</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+1.18%</t>
+          <t>-0.06%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mar 22, 2023 00:00</t>
+          <t>Apr 14, 2023 00:00</t>
         </is>
       </c>
       <c r="B53">
-        <v>1939.46</v>
+        <v>2039.56</v>
       </c>
       <c r="C53">
-        <v>1978.74</v>
+        <v>2047.27</v>
       </c>
       <c r="D53">
-        <v>1934.23</v>
+        <v>1992.31</v>
       </c>
       <c r="E53">
-        <v>1969.64</v>
+        <v>2004.11</v>
       </c>
       <c r="F53">
-        <v>3018</v>
+        <v>-3545</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>+1.53%</t>
+          <t>-1.77%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mar 21, 2023 00:00</t>
+          <t>Apr 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B54">
-        <v>1978.77</v>
+        <v>2018.1</v>
       </c>
       <c r="C54">
-        <v>1985.15</v>
+        <v>2047.65</v>
       </c>
       <c r="D54">
-        <v>1935.36</v>
+        <v>2015.3</v>
       </c>
       <c r="E54">
-        <v>1940.46</v>
+        <v>2039.89</v>
       </c>
       <c r="F54">
-        <v>-3831</v>
+        <v>2179</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>+1.07%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mar 20, 2023 00:00</t>
+          <t>Apr 12, 2023 00:00</t>
         </is>
       </c>
       <c r="B55">
-        <v>1984.3</v>
+        <v>2004.87</v>
       </c>
       <c r="C55">
-        <v>2009.74</v>
+        <v>2027.23</v>
       </c>
       <c r="D55">
-        <v>1965.78</v>
+        <v>2001.2</v>
       </c>
       <c r="E55">
-        <v>1978.63</v>
+        <v>2018.09</v>
       </c>
       <c r="F55">
-        <v>-567</v>
+        <v>1322</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>+0.66%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mar 17, 2023 00:00</t>
+          <t>Apr 11, 2023 00:00</t>
         </is>
       </c>
       <c r="B56">
-        <v>1920.49</v>
+        <v>1992.3</v>
       </c>
       <c r="C56">
-        <v>1987.72</v>
+        <v>2007.13</v>
       </c>
       <c r="D56">
-        <v>1918.2</v>
+        <v>1988.4</v>
       </c>
       <c r="E56">
-        <v>1985.97</v>
+        <v>2004.63</v>
       </c>
       <c r="F56">
-        <v>6548</v>
+        <v>1233</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>+3.30%</t>
+          <t>+0.62%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mar 16, 2023 00:00</t>
+          <t>Apr 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B57">
-        <v>1918.23</v>
+        <v>2005.17</v>
       </c>
       <c r="C57">
-        <v>1933.43</v>
+        <v>2005.71</v>
       </c>
       <c r="D57">
-        <v>1907.51</v>
+        <v>1981.92</v>
       </c>
       <c r="E57">
-        <v>1919.3</v>
+        <v>1992.37</v>
       </c>
       <c r="F57">
-        <v>107</v>
+        <v>-1280</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>+0.06%</t>
+          <t>-0.64%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mar 15, 2023 00:00</t>
+          <t>Apr 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B58">
-        <v>1903.48</v>
+        <v>2020.3</v>
       </c>
       <c r="C58">
-        <v>1937.31</v>
+        <v>2020.3</v>
       </c>
       <c r="D58">
-        <v>1885.66</v>
+        <v>1991.22</v>
       </c>
       <c r="E58">
-        <v>1918.09</v>
+        <v>2005.49</v>
       </c>
       <c r="F58">
-        <v>1461</v>
+        <v>-1481</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>+0.76%</t>
+          <t>-0.74%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mar 14, 2023 00:00</t>
+          <t>Apr 07, 2023 00:00</t>
         </is>
       </c>
       <c r="B59">
-        <v>1913.45</v>
+        <v>2007.05</v>
       </c>
       <c r="C59">
-        <v>1914.1</v>
+        <v>2007.24</v>
       </c>
       <c r="D59">
-        <v>1895.37</v>
+        <v>2007.05</v>
       </c>
       <c r="E59">
-        <v>1903.84</v>
+        <v>2007.24</v>
       </c>
       <c r="F59">
-        <v>-961</v>
+        <v>19</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>+0.01%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mar 13, 2023 00:00</t>
+          <t>Apr 06, 2023 00:00</t>
         </is>
       </c>
       <c r="B60">
-        <v>1880.78</v>
+        <v>2020.34</v>
       </c>
       <c r="C60">
-        <v>1914.57</v>
+        <v>2020.87</v>
       </c>
       <c r="D60">
-        <v>1871.45</v>
+        <v>2000.4</v>
       </c>
       <c r="E60">
-        <v>1913.37</v>
+        <v>2007.56</v>
       </c>
       <c r="F60">
-        <v>3259</v>
+        <v>-1278</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>+1.70%</t>
+          <t>-0.64%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mar 10, 2023 00:00</t>
+          <t>Apr 05, 2023 00:00</t>
         </is>
       </c>
       <c r="B61">
-        <v>1831.12</v>
+        <v>2021.48</v>
       </c>
       <c r="C61">
-        <v>1870.09</v>
+        <v>2031.9</v>
       </c>
       <c r="D61">
-        <v>1827.7</v>
+        <v>2011.36</v>
       </c>
       <c r="E61">
-        <v>1867.23</v>
+        <v>2020.23</v>
       </c>
       <c r="F61">
-        <v>3611</v>
+        <v>-125</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>+1.93%</t>
+          <t>-0.06%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mar 09, 2023 00:00</t>
+          <t>Apr 04, 2023 00:00</t>
         </is>
       </c>
       <c r="B62">
-        <v>1813.77</v>
+        <v>1984.6</v>
       </c>
       <c r="C62">
-        <v>1835.64</v>
+        <v>2024.8</v>
       </c>
       <c r="D62">
-        <v>1811.87</v>
+        <v>1977.2</v>
       </c>
       <c r="E62">
-        <v>1830.74</v>
+        <v>2021.6</v>
       </c>
       <c r="F62">
-        <v>1697</v>
+        <v>3700</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>+0.93%</t>
+          <t>+1.83%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mar 08, 2023 00:00</t>
+          <t>Apr 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B63">
-        <v>1813.49</v>
+        <v>1957.54</v>
       </c>
       <c r="C63">
-        <v>1824.22</v>
+        <v>1990.39</v>
       </c>
       <c r="D63">
-        <v>1809.35</v>
+        <v>1949.8</v>
       </c>
       <c r="E63">
-        <v>1813.66</v>
+        <v>1984.77</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>2723</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>+0.01%</t>
+          <t>+1.37%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Mar 07, 2023 00:00</t>
+          <t>Apr 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B64">
-        <v>1846.39</v>
+        <v>1969.3</v>
       </c>
       <c r="C64">
-        <v>1851.62</v>
+        <v>1972.95</v>
       </c>
       <c r="D64">
-        <v>1812.66</v>
+        <v>1957.54</v>
       </c>
       <c r="E64">
-        <v>1812.94</v>
+        <v>1957.65</v>
       </c>
       <c r="F64">
-        <v>-3345</v>
+        <v>-1165</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-1.85%</t>
+          <t>-0.60%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mar 06, 2023 00:00</t>
+          <t>Mar 31, 2023 00:00</t>
         </is>
       </c>
       <c r="B65">
-        <v>1855.24</v>
+        <v>1978.21</v>
       </c>
       <c r="C65">
-        <v>1858.28</v>
+        <v>1986.75</v>
       </c>
       <c r="D65">
-        <v>1845.05</v>
+        <v>1966.89</v>
       </c>
       <c r="E65">
-        <v>1846.56</v>
+        <v>1969.22</v>
       </c>
       <c r="F65">
-        <v>-868</v>
+        <v>-899</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mar 03, 2023 00:00</t>
+          <t>Mar 30, 2023 00:00</t>
         </is>
       </c>
       <c r="B66">
-        <v>1835.57</v>
+        <v>1963.1</v>
       </c>
       <c r="C66">
-        <v>1856.29</v>
+        <v>1983.9</v>
       </c>
       <c r="D66">
-        <v>1835.57</v>
+        <v>1955.6</v>
       </c>
       <c r="E66">
-        <v>1854.65</v>
+        <v>1978.39</v>
       </c>
       <c r="F66">
-        <v>1908</v>
+        <v>1529</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>+1.03%</t>
+          <t>+0.77%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mar 02, 2023 00:00</t>
+          <t>Mar 29, 2023 00:00</t>
         </is>
       </c>
       <c r="B67">
-        <v>1836.76</v>
+        <v>1972.27</v>
       </c>
       <c r="C67">
-        <v>1838.93</v>
+        <v>1972.73</v>
       </c>
       <c r="D67">
-        <v>1829.93</v>
+        <v>1958.79</v>
       </c>
       <c r="E67">
-        <v>1835.57</v>
+        <v>1963.15</v>
       </c>
       <c r="F67">
-        <v>-119</v>
+        <v>-912</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mar 01, 2023 00:00</t>
+          <t>Mar 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B68">
-        <v>1826.63</v>
+        <v>1958.2</v>
       </c>
       <c r="C68">
-        <v>1844.5</v>
+        <v>1975.09</v>
       </c>
       <c r="D68">
-        <v>1823.05</v>
+        <v>1948.5</v>
       </c>
       <c r="E68">
-        <v>1836.55</v>
+        <v>1971.86</v>
       </c>
       <c r="F68">
-        <v>992</v>
+        <v>1366</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>+0.54%</t>
+          <t>+0.69%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Feb 28, 2023 00:00</t>
+          <t>Mar 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B69">
-        <v>1816.83</v>
+        <v>1975.63</v>
       </c>
       <c r="C69">
-        <v>1831.15</v>
+        <v>1978.3</v>
       </c>
       <c r="D69">
-        <v>1804.72</v>
+        <v>1944.42</v>
       </c>
       <c r="E69">
-        <v>1826.63</v>
+        <v>1958.02</v>
       </c>
       <c r="F69">
-        <v>980</v>
+        <v>-1761</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>+0.54%</t>
+          <t>-0.90%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Feb 27, 2023 00:00</t>
+          <t>Mar 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B70">
-        <v>1810.76</v>
+        <v>1981.7</v>
       </c>
       <c r="C70">
-        <v>1820.13</v>
+        <v>1981.7</v>
       </c>
       <c r="D70">
-        <v>1806.59</v>
+        <v>1969.54</v>
       </c>
       <c r="E70">
-        <v>1817.17</v>
+        <v>1975.72</v>
       </c>
       <c r="F70">
-        <v>641</v>
+        <v>-598</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>+0.35%</t>
+          <t>-0.30%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Feb 24, 2023 00:00</t>
+          <t>Mar 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B71">
-        <v>1822.1</v>
+        <v>1991.37</v>
       </c>
       <c r="C71">
-        <v>1827.77</v>
+        <v>2002.82</v>
       </c>
       <c r="D71">
-        <v>1808.89</v>
+        <v>1974.7</v>
       </c>
       <c r="E71">
-        <v>1811.12</v>
+        <v>1978.42</v>
       </c>
       <c r="F71">
-        <v>-1098</v>
+        <v>-1295</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>-0.65%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Feb 23, 2023 00:00</t>
+          <t>Mar 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B72">
-        <v>1825.28</v>
+        <v>1969.94</v>
       </c>
       <c r="C72">
-        <v>1833.66</v>
+        <v>2003.22</v>
       </c>
       <c r="D72">
-        <v>1817.39</v>
+        <v>1966.58</v>
       </c>
       <c r="E72">
-        <v>1822.24</v>
+        <v>1991.23</v>
       </c>
       <c r="F72">
-        <v>-304</v>
+        <v>2129</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>+1.07%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Feb 22, 2023 00:00</t>
+          <t>Mar 22, 2023 00:00</t>
         </is>
       </c>
       <c r="B73">
-        <v>1835.04</v>
+        <v>1943.12</v>
       </c>
       <c r="C73">
-        <v>1846.01</v>
+        <v>1977.88</v>
       </c>
       <c r="D73">
-        <v>1823.48</v>
+        <v>1934.65</v>
       </c>
       <c r="E73">
-        <v>1825.14</v>
+        <v>1969.57</v>
       </c>
       <c r="F73">
-        <v>-990</v>
+        <v>2645</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>+1.34%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Feb 21, 2023 00:00</t>
+          <t>Mar 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B74">
-        <v>1841.62</v>
+        <v>1977.26</v>
       </c>
       <c r="C74">
-        <v>1843.81</v>
+        <v>1984.78</v>
       </c>
       <c r="D74">
-        <v>1830.21</v>
+        <v>1935.51</v>
       </c>
       <c r="E74">
-        <v>1834.9</v>
+        <v>1942.81</v>
       </c>
       <c r="F74">
-        <v>-672</v>
+        <v>-3445</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>-1.77%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Feb 20, 2023 00:00</t>
+          <t>Mar 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B75">
-        <v>1840.58</v>
+        <v>1976.47</v>
       </c>
       <c r="C75">
-        <v>1847.47</v>
+        <v>2009.23</v>
       </c>
       <c r="D75">
-        <v>1837.23</v>
+        <v>1966.12</v>
       </c>
       <c r="E75">
-        <v>1841.18</v>
+        <v>1976.52</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>+0.03%</t>
+          <t>+0.00%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Feb 17, 2023 00:00</t>
+          <t>Mar 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B76">
-        <v>1836.68</v>
+        <v>1988.78</v>
       </c>
       <c r="C76">
-        <v>1843.57</v>
+        <v>2009.79</v>
       </c>
       <c r="D76">
-        <v>1818.89</v>
+        <v>1975.4</v>
       </c>
       <c r="E76">
-        <v>1842.03</v>
+        <v>1976.55</v>
       </c>
       <c r="F76">
-        <v>535</v>
+        <v>-1223</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>+0.29%</t>
+          <t>-0.62%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Feb 16, 2023 00:00</t>
+          <t>Mar 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B77">
-        <v>1836.08</v>
+        <v>1921.34</v>
       </c>
       <c r="C77">
-        <v>1845.25</v>
+        <v>1988.78</v>
       </c>
       <c r="D77">
-        <v>1827.58</v>
+        <v>1918.48</v>
       </c>
       <c r="E77">
-        <v>1836.37</v>
+        <v>1987.46</v>
       </c>
       <c r="F77">
-        <v>29</v>
+        <v>6612</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>+0.02%</t>
+          <t>+3.33%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Feb 15, 2023 00:00</t>
+          <t>Mar 16, 2023 00:00</t>
         </is>
       </c>
       <c r="B78">
-        <v>1854.03</v>
+        <v>1921.46</v>
       </c>
       <c r="C78">
-        <v>1860.01</v>
+        <v>1932.68</v>
       </c>
       <c r="D78">
-        <v>1830.44</v>
+        <v>1907.66</v>
       </c>
       <c r="E78">
-        <v>1835.79</v>
+        <v>1921.3</v>
       </c>
       <c r="F78">
-        <v>-1824</v>
+        <v>-16</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Feb 14, 2023 00:00</t>
+          <t>Mar 15, 2023 00:00</t>
         </is>
       </c>
       <c r="B79">
-        <v>1852.56</v>
+        <v>1902.45</v>
       </c>
       <c r="C79">
-        <v>1870.5</v>
+        <v>1937.02</v>
       </c>
       <c r="D79">
-        <v>1843.22</v>
+        <v>1886.09</v>
       </c>
       <c r="E79">
-        <v>1854.34</v>
+        <v>1921.03</v>
       </c>
       <c r="F79">
-        <v>178</v>
+        <v>1858</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>+0.10%</t>
+          <t>+0.97%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Feb 13, 2023 00:00</t>
+          <t>Mar 14, 2023 00:00</t>
         </is>
       </c>
       <c r="B80">
-        <v>1864.73</v>
+        <v>1911.76</v>
       </c>
       <c r="C80">
-        <v>1866.58</v>
+        <v>1913.93</v>
       </c>
       <c r="D80">
-        <v>1850.46</v>
+        <v>1896.25</v>
       </c>
       <c r="E80">
-        <v>1853.36</v>
+        <v>1903.02</v>
       </c>
       <c r="F80">
-        <v>-1137</v>
+        <v>-874</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Feb 10, 2023 00:00</t>
+          <t>Mar 13, 2023 00:00</t>
         </is>
       </c>
       <c r="B81">
-        <v>1860.75</v>
+        <v>1876.65</v>
       </c>
       <c r="C81">
-        <v>1872.15</v>
+        <v>1914.4</v>
       </c>
       <c r="D81">
-        <v>1852.73</v>
+        <v>1871.59</v>
       </c>
       <c r="E81">
-        <v>1865.4</v>
+        <v>1912.13</v>
       </c>
       <c r="F81">
-        <v>465</v>
+        <v>3548</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>+1.86%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Feb 09, 2023 00:00</t>
+          <t>Mar 12, 2023 00:00</t>
         </is>
       </c>
       <c r="B82">
-        <v>1875.22</v>
+        <v>1869.6</v>
       </c>
       <c r="C82">
-        <v>1890.22</v>
+        <v>1893.75</v>
       </c>
       <c r="D82">
-        <v>1858.88</v>
+        <v>1866.99</v>
       </c>
       <c r="E82">
-        <v>1861.54</v>
+        <v>1877.59</v>
       </c>
       <c r="F82">
-        <v>-1368</v>
+        <v>799</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>+0.43%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Feb 08, 2023 00:00</t>
+          <t>Mar 10, 2023 00:00</t>
         </is>
       </c>
       <c r="B83">
-        <v>1871.64</v>
+        <v>1831.48</v>
       </c>
       <c r="C83">
-        <v>1886.33</v>
+        <v>1869.82</v>
       </c>
       <c r="D83">
-        <v>1869.02</v>
+        <v>1827.71</v>
       </c>
       <c r="E83">
-        <v>1875.42</v>
+        <v>1867.05</v>
       </c>
       <c r="F83">
-        <v>378</v>
+        <v>3557</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>+0.20%</t>
+          <t>+1.91%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Feb 07, 2023 00:00</t>
+          <t>Mar 09, 2023 00:00</t>
         </is>
       </c>
       <c r="B84">
-        <v>1867.26</v>
+        <v>1815.07</v>
       </c>
       <c r="C84">
-        <v>1884.32</v>
+        <v>1835.09</v>
       </c>
       <c r="D84">
-        <v>1864.93</v>
+        <v>1811.9</v>
       </c>
       <c r="E84">
-        <v>1873.66</v>
+        <v>1831.37</v>
       </c>
       <c r="F84">
-        <v>640</v>
+        <v>1630</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>+0.34%</t>
+          <t>+0.89%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Feb 06, 2023 00:00</t>
+          <t>Mar 08, 2023 00:00</t>
         </is>
       </c>
       <c r="B85">
-        <v>1861.18</v>
+        <v>1813.78</v>
       </c>
       <c r="C85">
-        <v>1881.33</v>
+        <v>1823.95</v>
       </c>
       <c r="D85">
-        <v>1860.06</v>
+        <v>1809.2</v>
       </c>
       <c r="E85">
-        <v>1867.56</v>
+        <v>1815.12</v>
       </c>
       <c r="F85">
-        <v>638</v>
+        <v>134</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>+0.34%</t>
+          <t>+0.07%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Feb 03, 2023 00:00</t>
+          <t>Mar 07, 2023 00:00</t>
         </is>
       </c>
       <c r="B86">
-        <v>1911.7</v>
+        <v>1845.36</v>
       </c>
       <c r="C86">
-        <v>1918.55</v>
+        <v>1851.36</v>
       </c>
       <c r="D86">
-        <v>1861.36</v>
+        <v>1812.5</v>
       </c>
       <c r="E86">
-        <v>1864.97</v>
+        <v>1813.82</v>
       </c>
       <c r="F86">
-        <v>-4673</v>
+        <v>-3154</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-2.51%</t>
+          <t>-1.74%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Feb 02, 2023 00:00</t>
+          <t>Mar 06, 2023 00:00</t>
         </is>
       </c>
       <c r="B87">
-        <v>1950.87</v>
+        <v>1852.31</v>
       </c>
       <c r="C87">
-        <v>1959.67</v>
+        <v>1857.96</v>
       </c>
       <c r="D87">
-        <v>1911.28</v>
+        <v>1844.8</v>
       </c>
       <c r="E87">
-        <v>1912.57</v>
+        <v>1846.29</v>
       </c>
       <c r="F87">
-        <v>-3830</v>
+        <v>-602</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-0.33%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Feb 01, 2023 00:00</t>
+          <t>Mar 05, 2023 00:00</t>
         </is>
       </c>
       <c r="B88">
-        <v>1927.16</v>
+        <v>1858.3</v>
       </c>
       <c r="C88">
-        <v>1954.5</v>
+        <v>1858.31</v>
       </c>
       <c r="D88">
-        <v>1920.5</v>
+        <v>1852.16</v>
       </c>
       <c r="E88">
-        <v>1950.06</v>
+        <v>1852.19</v>
       </c>
       <c r="F88">
-        <v>2290</v>
+        <v>-611</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>+1.17%</t>
+          <t>-0.33%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jan 31, 2023 00:00</t>
+          <t>Mar 03, 2023 00:00</t>
         </is>
       </c>
       <c r="B89">
-        <v>1921.86</v>
+        <v>1838.44</v>
       </c>
       <c r="C89">
-        <v>1931.11</v>
+        <v>1856.3</v>
       </c>
       <c r="D89">
-        <v>1900.7</v>
+        <v>1837.1</v>
       </c>
       <c r="E89">
-        <v>1928.06</v>
+        <v>1855.18</v>
       </c>
       <c r="F89">
-        <v>620</v>
+        <v>1674</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>+0.90%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jan 30, 2023 00:00</t>
+          <t>Mar 02, 2023 00:00</t>
         </is>
       </c>
       <c r="B90">
-        <v>1927.96</v>
+        <v>1836.5</v>
       </c>
       <c r="C90">
-        <v>1934.41</v>
+        <v>1838.66</v>
       </c>
       <c r="D90">
-        <v>1920.64</v>
+        <v>1830.02</v>
       </c>
       <c r="E90">
-        <v>1923.07</v>
+        <v>1837.66</v>
       </c>
       <c r="F90">
-        <v>-489</v>
+        <v>116</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>+0.06%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jan 27, 2023 00:00</t>
+          <t>Mar 01, 2023 00:00</t>
         </is>
       </c>
       <c r="B91">
-        <v>1927.72</v>
+        <v>1825.07</v>
       </c>
       <c r="C91">
-        <v>1934.96</v>
+        <v>1844.03</v>
       </c>
       <c r="D91">
-        <v>1916.71</v>
+        <v>1823.01</v>
       </c>
       <c r="E91">
-        <v>1928.05</v>
+        <v>1836.51</v>
       </c>
       <c r="F91">
-        <v>33</v>
+        <v>1144</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>+0.02%</t>
+          <t>+0.62%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jan 26, 2023 00:00</t>
+          <t>Feb 28, 2023 00:00</t>
         </is>
       </c>
       <c r="B92">
-        <v>1946.52</v>
+        <v>1817.13</v>
       </c>
       <c r="C92">
-        <v>1949.1</v>
+        <v>1830.86</v>
       </c>
       <c r="D92">
-        <v>1918.55</v>
+        <v>1805.73</v>
       </c>
       <c r="E92">
-        <v>1929.04</v>
+        <v>1825.49</v>
       </c>
       <c r="F92">
-        <v>-1748</v>
+        <v>836</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>+0.46%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jan 25, 2023 00:00</t>
+          <t>Feb 27, 2023 00:00</t>
         </is>
       </c>
       <c r="B93">
-        <v>1936.97</v>
+        <v>1811.72</v>
       </c>
       <c r="C93">
-        <v>1948</v>
+        <v>1820</v>
       </c>
       <c r="D93">
-        <v>1919.83</v>
+        <v>1806.69</v>
       </c>
       <c r="E93">
-        <v>1946.12</v>
+        <v>1817.08</v>
       </c>
       <c r="F93">
-        <v>915</v>
+        <v>536</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>+0.47%</t>
+          <t>+0.29%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jan 24, 2023 00:00</t>
+          <t>Feb 26, 2023 00:00</t>
         </is>
       </c>
       <c r="B94">
-        <v>1931.05</v>
+        <v>1817.1</v>
       </c>
       <c r="C94">
-        <v>1942.46</v>
+        <v>1817.1</v>
       </c>
       <c r="D94">
-        <v>1917.14</v>
+        <v>1810.72</v>
       </c>
       <c r="E94">
-        <v>1937.24</v>
+        <v>1811.8</v>
       </c>
       <c r="F94">
-        <v>619</v>
+        <v>-530</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jan 23, 2023 00:00</t>
+          <t>Feb 24, 2023 00:00</t>
         </is>
       </c>
       <c r="B95">
-        <v>1926</v>
+        <v>1823.16</v>
       </c>
       <c r="C95">
-        <v>1935.47</v>
+        <v>1827.65</v>
       </c>
       <c r="D95">
-        <v>1911.33</v>
+        <v>1809</v>
       </c>
       <c r="E95">
-        <v>1930.8</v>
+        <v>1810.67</v>
       </c>
       <c r="F95">
-        <v>480</v>
+        <v>-1249</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>-0.69%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jan 20, 2023 00:00</t>
+          <t>Feb 23, 2023 00:00</t>
         </is>
       </c>
       <c r="B96">
-        <v>1931.16</v>
+        <v>1825.01</v>
       </c>
       <c r="C96">
-        <v>1937.47</v>
+        <v>1833.41</v>
       </c>
       <c r="D96">
-        <v>1920.65</v>
+        <v>1817.8</v>
       </c>
       <c r="E96">
-        <v>1926.11</v>
+        <v>1823.24</v>
       </c>
       <c r="F96">
-        <v>-505</v>
+        <v>-177</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-0.26%</t>
+          <t>-0.10%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jan 19, 2023 00:00</t>
+          <t>Feb 22, 2023 00:00</t>
         </is>
       </c>
       <c r="B97">
-        <v>1904.42</v>
+        <v>1835.59</v>
       </c>
       <c r="C97">
-        <v>1935.17</v>
+        <v>1845.59</v>
       </c>
       <c r="D97">
-        <v>1900.9</v>
+        <v>1823.47</v>
       </c>
       <c r="E97">
-        <v>1932.07</v>
+        <v>1825.02</v>
       </c>
       <c r="F97">
-        <v>2765</v>
+        <v>-1057</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>+1.43%</t>
+          <t>-0.58%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jan 18, 2023 00:00</t>
+          <t>Feb 21, 2023 00:00</t>
         </is>
       </c>
       <c r="B98">
-        <v>1907.24</v>
+        <v>1840.82</v>
       </c>
       <c r="C98">
-        <v>1925.89</v>
+        <v>1843.66</v>
       </c>
       <c r="D98">
-        <v>1896.51</v>
+        <v>1829.6</v>
       </c>
       <c r="E98">
-        <v>1904.24</v>
+        <v>1835.5</v>
       </c>
       <c r="F98">
-        <v>-300</v>
+        <v>-532</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jan 17, 2023 00:00</t>
+          <t>Feb 20, 2023 00:00</t>
         </is>
       </c>
       <c r="B99">
-        <v>1914.88</v>
+        <v>1838.79</v>
       </c>
       <c r="C99">
-        <v>1918.98</v>
+        <v>1847.34</v>
       </c>
       <c r="D99">
-        <v>1903.71</v>
+        <v>1836.5</v>
       </c>
       <c r="E99">
-        <v>1908.49</v>
+        <v>1841.65</v>
       </c>
       <c r="F99">
-        <v>-639</v>
+        <v>286</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>+0.16%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jan 16, 2023 00:00</t>
+          <t>Feb 19, 2023 00:00</t>
         </is>
       </c>
       <c r="B100">
-        <v>1919.38</v>
+        <v>1846.1</v>
       </c>
       <c r="C100">
-        <v>1928.92</v>
+        <v>1846.1</v>
       </c>
       <c r="D100">
-        <v>1910.82</v>
+        <v>1837.9</v>
       </c>
       <c r="E100">
-        <v>1915.35</v>
+        <v>1838.59</v>
       </c>
       <c r="F100">
-        <v>-403</v>
+        <v>-751</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>-0.41%</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jan 13, 2023 00:00</t>
+          <t>Feb 17, 2023 00:00</t>
         </is>
       </c>
       <c r="B101">
-        <v>1895.88</v>
+        <v>1833.04</v>
       </c>
       <c r="C101">
-        <v>1921.88</v>
+        <v>1843.46</v>
       </c>
       <c r="D101">
-        <v>1892.25</v>
+        <v>1819</v>
       </c>
       <c r="E101">
-        <v>1920.15</v>
+        <v>1842.34</v>
       </c>
       <c r="F101">
-        <v>2427</v>
+        <v>930</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>+1.26%</t>
+          <t>+0.50%</t>
         </is>
       </c>
     </row>
